--- a/app/resource/xlsx/major_proposal_template_2_case2.xlsx
+++ b/app/resource/xlsx/major_proposal_template_2_case2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Bridge_Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zero\Documents\GitHub\xero-asana-intergration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF7223E-958B-45B1-A726-E0A9E3D5EFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C5312-CA0C-4A19-9B22-7CBD3E912EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -1319,7 +1319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -1876,6 +1876,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1885,7 +1894,7 @@
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2193,17 +2202,83 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2211,9 +2286,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2223,114 +2295,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2352,119 +2448,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2487,83 +2529,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2589,26 +2592,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3939,8 +3930,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A27:Y361"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A268" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H280" sqref="H280"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A372" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125:I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3957,67 +3948,67 @@
   </cols>
   <sheetData>
     <row r="27" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="153"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
     </row>
     <row r="31" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
     </row>
     <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="F37" s="157" t="s">
+      <c r="F37" s="138" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="138"/>
+      <c r="I37" s="138"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="156" t="s">
+      <c r="F38" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="F39" s="156" t="s">
+      <c r="F39" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="156"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="156" t="s">
+      <c r="F40" s="137" t="s">
         <v>229</v>
       </c>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="156" t="s">
+      <c r="F41" s="137" t="s">
         <v>230</v>
       </c>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -4025,10 +4016,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="155"/>
-      <c r="B43" s="155"/>
-      <c r="C43" s="155"/>
-      <c r="D43" s="155"/>
+      <c r="A43" s="136"/>
+      <c r="B43" s="136"/>
+      <c r="C43" s="136"/>
+      <c r="D43" s="136"/>
       <c r="I43" s="33" t="s">
         <v>242</v>
       </c>
@@ -4037,16 +4028,16 @@
       <c r="A45" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="B45" s="124"/>
-      <c r="C45" s="124" t="e">
+      <c r="B45" s="130"/>
+      <c r="C45" s="130" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="40"/>
@@ -4054,10 +4045,10 @@
       <c r="G46" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="142"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="130"/>
       <c r="M46" s="40"/>
       <c r="N46" s="40"/>
       <c r="O46" s="45"/>
@@ -4120,15 +4111,15 @@
       <c r="P50" s="39"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="142"/>
-      <c r="B51" s="142"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="142"/>
-      <c r="I51" s="142"/>
+      <c r="A51" s="144"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="144"/>
+      <c r="I51" s="144"/>
       <c r="K51" s="44"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -4153,26 +4144,26 @@
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="125"/>
-      <c r="B53" s="125"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="125"/>
+      <c r="A53" s="134"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="134"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="134"/>
+      <c r="I53" s="134"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="125"/>
-      <c r="B54" s="125"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
+      <c r="A54" s="134"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="134"/>
+      <c r="E54" s="134"/>
+      <c r="F54" s="134"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="134"/>
+      <c r="I54" s="134"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
@@ -4180,93 +4171,93 @@
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
-      <c r="Q54" s="141"/>
-      <c r="R54" s="141"/>
-      <c r="S54" s="141"/>
-      <c r="T54" s="141"/>
-      <c r="U54" s="141"/>
-      <c r="V54" s="141"/>
-      <c r="W54" s="141"/>
-      <c r="X54" s="141"/>
+      <c r="Q54" s="143"/>
+      <c r="R54" s="143"/>
+      <c r="S54" s="143"/>
+      <c r="T54" s="143"/>
+      <c r="U54" s="143"/>
+      <c r="V54" s="143"/>
+      <c r="W54" s="143"/>
+      <c r="X54" s="143"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="125" t="s">
+      <c r="A56" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="B56" s="125"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="M56" s="139"/>
-      <c r="N56" s="139"/>
-      <c r="O56" s="139"/>
-      <c r="P56" s="139"/>
-      <c r="Q56" s="139"/>
-      <c r="R56" s="139"/>
-      <c r="S56" s="139"/>
-      <c r="T56" s="139"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="134"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="M56" s="141"/>
+      <c r="N56" s="141"/>
+      <c r="O56" s="141"/>
+      <c r="P56" s="141"/>
+      <c r="Q56" s="141"/>
+      <c r="R56" s="141"/>
+      <c r="S56" s="141"/>
+      <c r="T56" s="141"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="125"/>
-      <c r="B57" s="125"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="125"/>
-      <c r="E57" s="125"/>
-      <c r="F57" s="125"/>
-      <c r="G57" s="125"/>
-      <c r="H57" s="125"/>
-      <c r="I57" s="125"/>
-      <c r="M57" s="139"/>
-      <c r="N57" s="139"/>
-      <c r="O57" s="139"/>
-      <c r="P57" s="139"/>
-      <c r="Q57" s="139"/>
-      <c r="R57" s="139"/>
-      <c r="S57" s="139"/>
-      <c r="T57" s="139"/>
+      <c r="A57" s="134"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="134"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="M57" s="141"/>
+      <c r="N57" s="141"/>
+      <c r="O57" s="141"/>
+      <c r="P57" s="141"/>
+      <c r="Q57" s="141"/>
+      <c r="R57" s="141"/>
+      <c r="S57" s="141"/>
+      <c r="T57" s="141"/>
     </row>
     <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="125"/>
-      <c r="B58" s="125"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
-      <c r="M58" s="139"/>
-      <c r="N58" s="139"/>
-      <c r="O58" s="139"/>
-      <c r="P58" s="139"/>
-      <c r="Q58" s="139"/>
-      <c r="R58" s="139"/>
-      <c r="S58" s="139"/>
-      <c r="T58" s="139"/>
+      <c r="A58" s="134"/>
+      <c r="B58" s="134"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
+      <c r="M58" s="141"/>
+      <c r="N58" s="141"/>
+      <c r="O58" s="141"/>
+      <c r="P58" s="141"/>
+      <c r="Q58" s="141"/>
+      <c r="R58" s="141"/>
+      <c r="S58" s="141"/>
+      <c r="T58" s="141"/>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="125"/>
-      <c r="B59" s="125"/>
-      <c r="C59" s="125"/>
-      <c r="D59" s="125"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="125"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="125"/>
-      <c r="M59" s="139"/>
-      <c r="N59" s="139"/>
-      <c r="O59" s="139"/>
-      <c r="P59" s="139"/>
-      <c r="Q59" s="139"/>
-      <c r="R59" s="139"/>
-      <c r="S59" s="139"/>
-      <c r="T59" s="139"/>
+      <c r="A59" s="134"/>
+      <c r="B59" s="134"/>
+      <c r="C59" s="134"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
+      <c r="M59" s="141"/>
+      <c r="N59" s="141"/>
+      <c r="O59" s="141"/>
+      <c r="P59" s="141"/>
+      <c r="Q59" s="141"/>
+      <c r="R59" s="141"/>
+      <c r="S59" s="141"/>
+      <c r="T59" s="141"/>
     </row>
     <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
@@ -4284,30 +4275,30 @@
       <c r="P60" s="42"/>
     </row>
     <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="125" t="s">
+      <c r="A61" s="134" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="125"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="125"/>
+      <c r="B61" s="134"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="134"/>
+      <c r="E61" s="134"/>
+      <c r="F61" s="134"/>
+      <c r="G61" s="134"/>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="125"/>
-      <c r="B62" s="125"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="125"/>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="125"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="125"/>
+      <c r="A62" s="134"/>
+      <c r="B62" s="134"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
+      <c r="G62" s="134"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
       <c r="K62" s="35"/>
       <c r="M62" s="35"/>
       <c r="R62" s="35"/>
@@ -4319,16 +4310,16 @@
         <f t="shared" ref="A63:A66" si="0">IF(B63&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="B63" s="125" t="s">
+      <c r="B63" s="134" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
+      <c r="G63" s="134"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
       <c r="U63" s="47"/>
       <c r="V63" s="47"/>
       <c r="W63" s="48"/>
@@ -4338,32 +4329,32 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B64" s="125" t="s">
+      <c r="B64" s="134" t="s">
         <v>246</v>
       </c>
-      <c r="C64" s="125"/>
-      <c r="D64" s="125"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="125"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="134"/>
+      <c r="G64" s="134"/>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134"/>
     </row>
     <row r="65" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B65" s="125" t="s">
+      <c r="B65" s="134" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="134"/>
+      <c r="E65" s="134"/>
+      <c r="F65" s="134"/>
+      <c r="G65" s="134"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="134"/>
       <c r="K65" s="36"/>
       <c r="L65" s="33"/>
     </row>
@@ -4372,16 +4363,16 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B66" s="125" t="s">
+      <c r="B66" s="134" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="125"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="134"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="134"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="Q66" s="43"/>
@@ -4402,29 +4393,29 @@
       <c r="V67" s="43"/>
     </row>
     <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="125" t="s">
+      <c r="A68" s="134" t="s">
         <v>245</v>
       </c>
-      <c r="B68" s="125"/>
-      <c r="C68" s="125"/>
-      <c r="D68" s="125"/>
-      <c r="E68" s="125"/>
-      <c r="F68" s="125"/>
-      <c r="G68" s="125"/>
-      <c r="H68" s="125"/>
-      <c r="I68" s="125"/>
+      <c r="B68" s="134"/>
+      <c r="C68" s="134"/>
+      <c r="D68" s="134"/>
+      <c r="E68" s="134"/>
+      <c r="F68" s="134"/>
+      <c r="G68" s="134"/>
+      <c r="H68" s="134"/>
+      <c r="I68" s="134"/>
       <c r="W68" s="43"/>
     </row>
     <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="125"/>
-      <c r="B69" s="125"/>
-      <c r="C69" s="125"/>
-      <c r="D69" s="125"/>
-      <c r="E69" s="125"/>
-      <c r="F69" s="125"/>
-      <c r="G69" s="125"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="125"/>
+      <c r="A69" s="134"/>
+      <c r="B69" s="134"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="134"/>
+      <c r="E69" s="134"/>
+      <c r="F69" s="134"/>
+      <c r="G69" s="134"/>
+      <c r="H69" s="134"/>
+      <c r="I69" s="134"/>
       <c r="M69" s="35"/>
       <c r="W69" s="43"/>
     </row>
@@ -4573,24 +4564,24 @@
       </c>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="125"/>
-      <c r="C86" s="125"/>
-      <c r="D86" s="125"/>
-      <c r="E86" s="125"/>
-      <c r="F86" s="125"/>
-      <c r="G86" s="125"/>
-      <c r="H86" s="125"/>
-      <c r="I86" s="125"/>
+      <c r="B86" s="134"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="134"/>
+      <c r="E86" s="134"/>
+      <c r="F86" s="134"/>
+      <c r="G86" s="134"/>
+      <c r="H86" s="134"/>
+      <c r="I86" s="134"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="125"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="125"/>
-      <c r="E87" s="125"/>
-      <c r="F87" s="125"/>
-      <c r="G87" s="125"/>
-      <c r="H87" s="125"/>
-      <c r="I87" s="125"/>
+      <c r="B87" s="134"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="134"/>
+      <c r="F87" s="134"/>
+      <c r="G87" s="134"/>
+      <c r="H87" s="134"/>
+      <c r="I87" s="134"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4639,16 +4630,16 @@
     </row>
     <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="125" t="s">
+      <c r="B91" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="C91" s="125"/>
-      <c r="D91" s="125"/>
-      <c r="E91" s="125"/>
-      <c r="F91" s="125"/>
-      <c r="G91" s="125"/>
-      <c r="H91" s="125"/>
-      <c r="I91" s="125"/>
+      <c r="C91" s="134"/>
+      <c r="D91" s="134"/>
+      <c r="E91" s="134"/>
+      <c r="F91" s="134"/>
+      <c r="G91" s="134"/>
+      <c r="H91" s="134"/>
+      <c r="I91" s="134"/>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
@@ -4657,25 +4648,25 @@
     </row>
     <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="125"/>
-      <c r="C92" s="125"/>
-      <c r="D92" s="125"/>
-      <c r="E92" s="125"/>
-      <c r="F92" s="125"/>
-      <c r="G92" s="125"/>
-      <c r="H92" s="125"/>
-      <c r="I92" s="125"/>
+      <c r="B92" s="134"/>
+      <c r="C92" s="134"/>
+      <c r="D92" s="134"/>
+      <c r="E92" s="134"/>
+      <c r="F92" s="134"/>
+      <c r="G92" s="134"/>
+      <c r="H92" s="134"/>
+      <c r="I92" s="134"/>
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="125"/>
-      <c r="C93" s="125"/>
-      <c r="D93" s="125"/>
-      <c r="E93" s="125"/>
-      <c r="F93" s="125"/>
-      <c r="G93" s="125"/>
-      <c r="H93" s="125"/>
-      <c r="I93" s="125"/>
+      <c r="B93" s="134"/>
+      <c r="C93" s="134"/>
+      <c r="D93" s="134"/>
+      <c r="E93" s="134"/>
+      <c r="F93" s="134"/>
+      <c r="G93" s="134"/>
+      <c r="H93" s="134"/>
+      <c r="I93" s="134"/>
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
@@ -4911,251 +4902,251 @@
     </row>
     <row r="114" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="109"/>
-      <c r="B114" s="130" t="s">
+      <c r="B114" s="151" t="s">
         <v>291</v>
       </c>
-      <c r="C114" s="131"/>
-      <c r="D114" s="131" t="s">
+      <c r="C114" s="152"/>
+      <c r="D114" s="152" t="s">
         <v>238</v>
       </c>
-      <c r="E114" s="131"/>
-      <c r="F114" s="131"/>
-      <c r="G114" s="131"/>
-      <c r="H114" s="131"/>
-      <c r="I114" s="136"/>
+      <c r="E114" s="152"/>
+      <c r="F114" s="152"/>
+      <c r="G114" s="152"/>
+      <c r="H114" s="152"/>
+      <c r="I114" s="155"/>
       <c r="L114" s="1"/>
       <c r="M114" s="84"/>
       <c r="P114" s="42"/>
     </row>
     <row r="115" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="109"/>
-      <c r="B115" s="132"/>
-      <c r="C115" s="133"/>
-      <c r="D115" s="133" t="s">
+      <c r="B115" s="153"/>
+      <c r="C115" s="145"/>
+      <c r="D115" s="145" t="s">
         <v>273</v>
       </c>
-      <c r="E115" s="133"/>
-      <c r="F115" s="133"/>
-      <c r="G115" s="133"/>
-      <c r="H115" s="133"/>
-      <c r="I115" s="137"/>
+      <c r="E115" s="145"/>
+      <c r="F115" s="145"/>
+      <c r="G115" s="145"/>
+      <c r="H115" s="145"/>
+      <c r="I115" s="146"/>
       <c r="L115" s="1"/>
       <c r="M115" s="84"/>
       <c r="P115" s="42"/>
     </row>
     <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="109"/>
-      <c r="B116" s="134"/>
-      <c r="C116" s="135"/>
-      <c r="D116" s="135" t="s">
+      <c r="B116" s="154"/>
+      <c r="C116" s="147"/>
+      <c r="D116" s="147" t="s">
         <v>257</v>
       </c>
-      <c r="E116" s="135"/>
-      <c r="F116" s="135"/>
-      <c r="G116" s="135"/>
-      <c r="H116" s="135"/>
-      <c r="I116" s="138"/>
+      <c r="E116" s="147"/>
+      <c r="F116" s="147"/>
+      <c r="G116" s="147"/>
+      <c r="H116" s="147"/>
+      <c r="I116" s="148"/>
       <c r="L116" s="1"/>
       <c r="M116" s="84"/>
       <c r="P116" s="42"/>
     </row>
     <row r="117" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="109"/>
-      <c r="B117" s="130" t="s">
+      <c r="B117" s="151" t="s">
         <v>292</v>
       </c>
-      <c r="C117" s="131"/>
-      <c r="D117" s="131" t="s">
+      <c r="C117" s="152"/>
+      <c r="D117" s="152" t="s">
         <v>238</v>
       </c>
-      <c r="E117" s="131"/>
-      <c r="F117" s="131"/>
-      <c r="G117" s="131"/>
-      <c r="H117" s="131"/>
-      <c r="I117" s="136"/>
+      <c r="E117" s="152"/>
+      <c r="F117" s="152"/>
+      <c r="G117" s="152"/>
+      <c r="H117" s="152"/>
+      <c r="I117" s="155"/>
       <c r="L117" s="1"/>
       <c r="M117" s="84"/>
       <c r="P117" s="42"/>
     </row>
     <row r="118" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="109"/>
-      <c r="B118" s="132"/>
-      <c r="C118" s="133"/>
-      <c r="D118" s="133" t="s">
+      <c r="B118" s="153"/>
+      <c r="C118" s="145"/>
+      <c r="D118" s="145" t="s">
         <v>273</v>
       </c>
-      <c r="E118" s="133"/>
-      <c r="F118" s="133"/>
-      <c r="G118" s="133"/>
-      <c r="H118" s="133"/>
-      <c r="I118" s="137"/>
+      <c r="E118" s="145"/>
+      <c r="F118" s="145"/>
+      <c r="G118" s="145"/>
+      <c r="H118" s="145"/>
+      <c r="I118" s="146"/>
       <c r="L118" s="1"/>
       <c r="M118" s="84"/>
       <c r="P118" s="42"/>
     </row>
     <row r="119" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="109"/>
-      <c r="B119" s="134"/>
-      <c r="C119" s="135"/>
-      <c r="D119" s="135" t="s">
+      <c r="B119" s="154"/>
+      <c r="C119" s="147"/>
+      <c r="D119" s="147" t="s">
         <v>257</v>
       </c>
-      <c r="E119" s="135"/>
-      <c r="F119" s="135"/>
-      <c r="G119" s="135"/>
-      <c r="H119" s="135"/>
-      <c r="I119" s="138"/>
+      <c r="E119" s="147"/>
+      <c r="F119" s="147"/>
+      <c r="G119" s="147"/>
+      <c r="H119" s="147"/>
+      <c r="I119" s="148"/>
       <c r="L119" s="1"/>
       <c r="M119" s="84"/>
       <c r="P119" s="42"/>
     </row>
     <row r="120" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="109"/>
-      <c r="B120" s="130" t="s">
+      <c r="B120" s="151" t="s">
         <v>293</v>
       </c>
-      <c r="C120" s="131"/>
-      <c r="D120" s="131" t="s">
+      <c r="C120" s="152"/>
+      <c r="D120" s="152" t="s">
         <v>238</v>
       </c>
-      <c r="E120" s="131"/>
-      <c r="F120" s="131"/>
-      <c r="G120" s="131"/>
-      <c r="H120" s="131"/>
-      <c r="I120" s="136"/>
+      <c r="E120" s="152"/>
+      <c r="F120" s="152"/>
+      <c r="G120" s="152"/>
+      <c r="H120" s="152"/>
+      <c r="I120" s="155"/>
       <c r="L120" s="1"/>
       <c r="M120" s="84"/>
       <c r="P120" s="42"/>
     </row>
     <row r="121" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="109"/>
-      <c r="B121" s="132"/>
-      <c r="C121" s="133"/>
-      <c r="D121" s="133" t="s">
+      <c r="B121" s="153"/>
+      <c r="C121" s="145"/>
+      <c r="D121" s="145" t="s">
         <v>239</v>
       </c>
-      <c r="E121" s="133"/>
-      <c r="F121" s="133"/>
-      <c r="G121" s="133"/>
-      <c r="H121" s="133"/>
-      <c r="I121" s="137"/>
+      <c r="E121" s="145"/>
+      <c r="F121" s="145"/>
+      <c r="G121" s="145"/>
+      <c r="H121" s="145"/>
+      <c r="I121" s="146"/>
       <c r="L121" s="1"/>
       <c r="M121" s="84"/>
       <c r="P121" s="42"/>
     </row>
     <row r="122" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="109"/>
-      <c r="B122" s="132"/>
-      <c r="C122" s="133"/>
-      <c r="D122" s="133" t="s">
+      <c r="B122" s="153"/>
+      <c r="C122" s="145"/>
+      <c r="D122" s="145" t="s">
         <v>294</v>
       </c>
-      <c r="E122" s="133"/>
-      <c r="F122" s="133"/>
-      <c r="G122" s="133"/>
-      <c r="H122" s="133"/>
-      <c r="I122" s="137"/>
+      <c r="E122" s="145"/>
+      <c r="F122" s="145"/>
+      <c r="G122" s="145"/>
+      <c r="H122" s="145"/>
+      <c r="I122" s="146"/>
       <c r="M122" s="85"/>
       <c r="P122" s="42"/>
     </row>
     <row r="123" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="109"/>
-      <c r="B123" s="132"/>
-      <c r="C123" s="133"/>
-      <c r="D123" s="133" t="s">
+      <c r="B123" s="153"/>
+      <c r="C123" s="145"/>
+      <c r="D123" s="145" t="s">
         <v>257</v>
       </c>
-      <c r="E123" s="133"/>
-      <c r="F123" s="133"/>
-      <c r="G123" s="133"/>
-      <c r="H123" s="133"/>
-      <c r="I123" s="137"/>
+      <c r="E123" s="145"/>
+      <c r="F123" s="145"/>
+      <c r="G123" s="145"/>
+      <c r="H123" s="145"/>
+      <c r="I123" s="146"/>
       <c r="M123" s="85"/>
       <c r="O123" s="42"/>
       <c r="P123" s="42"/>
     </row>
     <row r="124" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="109"/>
-      <c r="B124" s="134"/>
-      <c r="C124" s="135"/>
-      <c r="D124" s="135" t="s">
+      <c r="B124" s="153"/>
+      <c r="C124" s="253"/>
+      <c r="D124" s="253" t="s">
         <v>276</v>
       </c>
-      <c r="E124" s="135"/>
-      <c r="F124" s="135"/>
-      <c r="G124" s="135"/>
-      <c r="H124" s="135"/>
-      <c r="I124" s="138"/>
+      <c r="E124" s="253"/>
+      <c r="F124" s="253"/>
+      <c r="G124" s="253"/>
+      <c r="H124" s="253"/>
+      <c r="I124" s="146"/>
       <c r="M124" s="85"/>
       <c r="O124" s="42"/>
       <c r="P124" s="42"/>
     </row>
     <row r="125" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="109"/>
-      <c r="B125" s="143"/>
-      <c r="C125" s="144"/>
-      <c r="D125" s="144"/>
-      <c r="E125" s="144"/>
-      <c r="F125" s="144"/>
-      <c r="G125" s="144"/>
-      <c r="H125" s="144"/>
-      <c r="I125" s="149"/>
+      <c r="B125" s="255"/>
+      <c r="C125" s="255"/>
+      <c r="D125" s="255"/>
+      <c r="E125" s="255"/>
+      <c r="F125" s="255"/>
+      <c r="G125" s="255"/>
+      <c r="H125" s="255"/>
+      <c r="I125" s="255"/>
       <c r="M125" s="85"/>
       <c r="O125" s="42"/>
       <c r="P125" s="42"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="109"/>
-      <c r="B126" s="145"/>
-      <c r="C126" s="146"/>
-      <c r="D126" s="146"/>
-      <c r="E126" s="146"/>
-      <c r="F126" s="146"/>
-      <c r="G126" s="146"/>
-      <c r="H126" s="146"/>
-      <c r="I126" s="150"/>
+      <c r="B126" s="254"/>
+      <c r="C126" s="254"/>
+      <c r="D126" s="254"/>
+      <c r="E126" s="254"/>
+      <c r="F126" s="254"/>
+      <c r="G126" s="254"/>
+      <c r="H126" s="254"/>
+      <c r="I126" s="254"/>
       <c r="M126" s="85"/>
       <c r="O126" s="42"/>
       <c r="P126" s="42"/>
     </row>
     <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="108"/>
-      <c r="B127" s="145"/>
-      <c r="C127" s="146"/>
-      <c r="D127" s="146"/>
-      <c r="E127" s="146"/>
-      <c r="F127" s="146"/>
-      <c r="G127" s="146"/>
-      <c r="H127" s="146"/>
-      <c r="I127" s="150"/>
+      <c r="B127" s="254"/>
+      <c r="C127" s="254"/>
+      <c r="D127" s="254"/>
+      <c r="E127" s="254"/>
+      <c r="F127" s="254"/>
+      <c r="G127" s="254"/>
+      <c r="H127" s="254"/>
+      <c r="I127" s="254"/>
       <c r="M127" s="85"/>
       <c r="O127" s="42"/>
       <c r="P127" s="42"/>
     </row>
     <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="108"/>
-      <c r="B128" s="145"/>
-      <c r="C128" s="146"/>
-      <c r="D128" s="146"/>
-      <c r="E128" s="146"/>
-      <c r="F128" s="146"/>
-      <c r="G128" s="146"/>
-      <c r="H128" s="146"/>
-      <c r="I128" s="150"/>
+      <c r="B128" s="254"/>
+      <c r="C128" s="254"/>
+      <c r="D128" s="254"/>
+      <c r="E128" s="254"/>
+      <c r="F128" s="254"/>
+      <c r="G128" s="254"/>
+      <c r="H128" s="254"/>
+      <c r="I128" s="254"/>
       <c r="M128" s="85"/>
       <c r="O128" s="42"/>
       <c r="P128" s="42"/>
     </row>
     <row r="129" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="108"/>
-      <c r="B129" s="147"/>
-      <c r="C129" s="148"/>
-      <c r="D129" s="148"/>
-      <c r="E129" s="148"/>
-      <c r="F129" s="148"/>
-      <c r="G129" s="148"/>
-      <c r="H129" s="148"/>
-      <c r="I129" s="158"/>
+      <c r="B129" s="254"/>
+      <c r="C129" s="254"/>
+      <c r="D129" s="254"/>
+      <c r="E129" s="254"/>
+      <c r="F129" s="254"/>
+      <c r="G129" s="254"/>
+      <c r="H129" s="254"/>
+      <c r="I129" s="254"/>
       <c r="M129" s="85"/>
       <c r="O129" s="42"/>
       <c r="P129" s="42"/>
@@ -5218,16 +5209,16 @@
         <f t="shared" ref="L134:L191" si="2">IF(M134&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="M134" s="126" t="s">
+      <c r="M134" s="132" t="s">
         <v>250</v>
       </c>
-      <c r="N134" s="126"/>
-      <c r="O134" s="126"/>
-      <c r="P134" s="126"/>
-      <c r="Q134" s="126"/>
-      <c r="R134" s="126"/>
-      <c r="S134" s="126"/>
-      <c r="T134" s="126"/>
+      <c r="N134" s="132"/>
+      <c r="O134" s="132"/>
+      <c r="P134" s="132"/>
+      <c r="Q134" s="132"/>
+      <c r="R134" s="132"/>
+      <c r="S134" s="132"/>
+      <c r="T134" s="132"/>
     </row>
     <row r="135" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="31"/>
@@ -5787,16 +5778,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M181" s="126" t="s">
+      <c r="M181" s="132" t="s">
         <v>251</v>
       </c>
-      <c r="N181" s="126"/>
-      <c r="O181" s="126"/>
-      <c r="P181" s="126"/>
-      <c r="Q181" s="126"/>
-      <c r="R181" s="126"/>
-      <c r="S181" s="126"/>
-      <c r="T181" s="126"/>
+      <c r="N181" s="132"/>
+      <c r="O181" s="132"/>
+      <c r="P181" s="132"/>
+      <c r="Q181" s="132"/>
+      <c r="R181" s="132"/>
+      <c r="S181" s="132"/>
+      <c r="T181" s="132"/>
     </row>
     <row r="182" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="31" t="str">
@@ -5853,16 +5844,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M185" s="125" t="s">
+      <c r="M185" s="134" t="s">
         <v>279</v>
       </c>
-      <c r="N185" s="125"/>
-      <c r="O185" s="125"/>
-      <c r="P185" s="125"/>
-      <c r="Q185" s="125"/>
-      <c r="R185" s="125"/>
-      <c r="S185" s="125"/>
-      <c r="T185" s="125"/>
+      <c r="N185" s="134"/>
+      <c r="O185" s="134"/>
+      <c r="P185" s="134"/>
+      <c r="Q185" s="134"/>
+      <c r="R185" s="134"/>
+      <c r="S185" s="134"/>
+      <c r="T185" s="134"/>
     </row>
     <row r="186" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="31"/>
@@ -5909,16 +5900,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M189" s="126" t="s">
+      <c r="M189" s="132" t="s">
         <v>254</v>
       </c>
-      <c r="N189" s="126"/>
-      <c r="O189" s="126"/>
-      <c r="P189" s="126"/>
-      <c r="Q189" s="126"/>
-      <c r="R189" s="126"/>
-      <c r="S189" s="126"/>
-      <c r="T189" s="126"/>
+      <c r="N189" s="132"/>
+      <c r="O189" s="132"/>
+      <c r="P189" s="132"/>
+      <c r="Q189" s="132"/>
+      <c r="R189" s="132"/>
+      <c r="S189" s="132"/>
+      <c r="T189" s="132"/>
     </row>
     <row r="190" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="31"/>
@@ -5938,28 +5929,28 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M191" s="126" t="s">
+      <c r="M191" s="132" t="s">
         <v>255</v>
       </c>
-      <c r="N191" s="126"/>
-      <c r="O191" s="126"/>
-      <c r="P191" s="126"/>
-      <c r="Q191" s="126"/>
-      <c r="R191" s="126"/>
-      <c r="S191" s="126"/>
-      <c r="T191" s="126"/>
+      <c r="N191" s="132"/>
+      <c r="O191" s="132"/>
+      <c r="P191" s="132"/>
+      <c r="Q191" s="132"/>
+      <c r="R191" s="132"/>
+      <c r="S191" s="132"/>
+      <c r="T191" s="132"/>
     </row>
     <row r="192" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="31"/>
       <c r="L192" s="31"/>
-      <c r="M192" s="126"/>
-      <c r="N192" s="126"/>
-      <c r="O192" s="126"/>
-      <c r="P192" s="126"/>
-      <c r="Q192" s="126"/>
-      <c r="R192" s="126"/>
-      <c r="S192" s="126"/>
-      <c r="T192" s="126"/>
+      <c r="M192" s="132"/>
+      <c r="N192" s="132"/>
+      <c r="O192" s="132"/>
+      <c r="P192" s="132"/>
+      <c r="Q192" s="132"/>
+      <c r="R192" s="132"/>
+      <c r="S192" s="132"/>
+      <c r="T192" s="132"/>
     </row>
     <row r="193" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="31"/>
@@ -6491,16 +6482,16 @@
     </row>
     <row r="225" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="60"/>
-      <c r="B225" s="125" t="s">
+      <c r="B225" s="134" t="s">
         <v>277</v>
       </c>
-      <c r="C225" s="125"/>
-      <c r="D225" s="125"/>
-      <c r="E225" s="125"/>
-      <c r="F225" s="125"/>
-      <c r="G225" s="125"/>
-      <c r="H225" s="125"/>
-      <c r="I225" s="125"/>
+      <c r="C225" s="134"/>
+      <c r="D225" s="134"/>
+      <c r="E225" s="134"/>
+      <c r="F225" s="134"/>
+      <c r="G225" s="134"/>
+      <c r="H225" s="134"/>
+      <c r="I225" s="134"/>
       <c r="K225" s="59"/>
       <c r="N225" s="42"/>
       <c r="O225" s="42"/>
@@ -6508,14 +6499,14 @@
     </row>
     <row r="226" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="60"/>
-      <c r="B226" s="125"/>
-      <c r="C226" s="125"/>
-      <c r="D226" s="125"/>
-      <c r="E226" s="125"/>
-      <c r="F226" s="125"/>
-      <c r="G226" s="125"/>
-      <c r="H226" s="125"/>
-      <c r="I226" s="125"/>
+      <c r="B226" s="134"/>
+      <c r="C226" s="134"/>
+      <c r="D226" s="134"/>
+      <c r="E226" s="134"/>
+      <c r="F226" s="134"/>
+      <c r="G226" s="134"/>
+      <c r="H226" s="134"/>
+      <c r="I226" s="134"/>
       <c r="K226" s="59"/>
       <c r="M226" s="42"/>
       <c r="N226" s="42"/>
@@ -6524,14 +6515,14 @@
     </row>
     <row r="227" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="60"/>
-      <c r="B227" s="125"/>
-      <c r="C227" s="125"/>
-      <c r="D227" s="125"/>
-      <c r="E227" s="125"/>
-      <c r="F227" s="125"/>
-      <c r="G227" s="125"/>
-      <c r="H227" s="125"/>
-      <c r="I227" s="125"/>
+      <c r="B227" s="134"/>
+      <c r="C227" s="134"/>
+      <c r="D227" s="134"/>
+      <c r="E227" s="134"/>
+      <c r="F227" s="134"/>
+      <c r="G227" s="134"/>
+      <c r="H227" s="134"/>
+      <c r="I227" s="134"/>
       <c r="K227" s="59"/>
       <c r="M227" s="42"/>
       <c r="N227" s="42"/>
@@ -6540,14 +6531,14 @@
     </row>
     <row r="228" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="60"/>
-      <c r="B228" s="125"/>
-      <c r="C228" s="125"/>
-      <c r="D228" s="125"/>
-      <c r="E228" s="125"/>
-      <c r="F228" s="125"/>
-      <c r="G228" s="125"/>
-      <c r="H228" s="125"/>
-      <c r="I228" s="125"/>
+      <c r="B228" s="134"/>
+      <c r="C228" s="134"/>
+      <c r="D228" s="134"/>
+      <c r="E228" s="134"/>
+      <c r="F228" s="134"/>
+      <c r="G228" s="134"/>
+      <c r="H228" s="134"/>
+      <c r="I228" s="134"/>
       <c r="K228" s="59"/>
       <c r="M228" s="42"/>
       <c r="N228" s="42"/>
@@ -6590,16 +6581,16 @@
     </row>
     <row r="231" spans="1:24" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="60"/>
-      <c r="B231" s="125" t="s">
+      <c r="B231" s="134" t="s">
         <v>220</v>
       </c>
-      <c r="C231" s="125"/>
-      <c r="D231" s="125"/>
-      <c r="E231" s="125"/>
-      <c r="F231" s="125"/>
-      <c r="G231" s="125"/>
-      <c r="H231" s="125"/>
-      <c r="I231" s="125"/>
+      <c r="C231" s="134"/>
+      <c r="D231" s="134"/>
+      <c r="E231" s="134"/>
+      <c r="F231" s="134"/>
+      <c r="G231" s="134"/>
+      <c r="H231" s="134"/>
+      <c r="I231" s="134"/>
       <c r="K231" s="59"/>
       <c r="M231" s="42"/>
       <c r="N231" s="42"/>
@@ -6608,14 +6599,14 @@
     </row>
     <row r="232" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="60"/>
-      <c r="B232" s="125"/>
-      <c r="C232" s="125"/>
-      <c r="D232" s="125"/>
-      <c r="E232" s="125"/>
-      <c r="F232" s="125"/>
-      <c r="G232" s="125"/>
-      <c r="H232" s="125"/>
-      <c r="I232" s="125"/>
+      <c r="B232" s="134"/>
+      <c r="C232" s="134"/>
+      <c r="D232" s="134"/>
+      <c r="E232" s="134"/>
+      <c r="F232" s="134"/>
+      <c r="G232" s="134"/>
+      <c r="H232" s="134"/>
+      <c r="I232" s="134"/>
       <c r="K232" s="59" t="s">
         <v>217</v>
       </c>
@@ -6738,16 +6729,16 @@
     </row>
     <row r="239" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="59"/>
-      <c r="B239" s="126" t="s">
+      <c r="B239" s="132" t="s">
         <v>224</v>
       </c>
-      <c r="C239" s="126"/>
-      <c r="D239" s="126"/>
-      <c r="E239" s="126"/>
-      <c r="F239" s="126"/>
-      <c r="G239" s="126"/>
-      <c r="H239" s="126"/>
-      <c r="I239" s="126"/>
+      <c r="C239" s="132"/>
+      <c r="D239" s="132"/>
+      <c r="E239" s="132"/>
+      <c r="F239" s="132"/>
+      <c r="G239" s="132"/>
+      <c r="H239" s="132"/>
+      <c r="I239" s="132"/>
       <c r="K239" s="59" t="s">
         <v>274</v>
       </c>
@@ -6988,16 +6979,16 @@
     </row>
     <row r="252" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="59"/>
-      <c r="B252" s="124" t="s">
+      <c r="B252" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C252" s="124"/>
-      <c r="D252" s="124"/>
-      <c r="E252" s="124"/>
-      <c r="F252" s="124"/>
-      <c r="G252" s="124"/>
-      <c r="H252" s="124"/>
-      <c r="I252" s="124"/>
+      <c r="C252" s="130"/>
+      <c r="D252" s="130"/>
+      <c r="E252" s="130"/>
+      <c r="F252" s="130"/>
+      <c r="G252" s="130"/>
+      <c r="H252" s="130"/>
+      <c r="I252" s="130"/>
       <c r="K252" t="s">
         <v>65</v>
       </c>
@@ -7056,16 +7047,16 @@
       <c r="P256" s="42"/>
     </row>
     <row r="257" spans="1:20" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="126" t="s">
+      <c r="B257" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="C257" s="126"/>
-      <c r="D257" s="126"/>
-      <c r="E257" s="126"/>
-      <c r="F257" s="126"/>
-      <c r="G257" s="126"/>
-      <c r="H257" s="126"/>
-      <c r="I257" s="126"/>
+      <c r="C257" s="132"/>
+      <c r="D257" s="132"/>
+      <c r="E257" s="132"/>
+      <c r="F257" s="132"/>
+      <c r="G257" s="132"/>
+      <c r="H257" s="132"/>
+      <c r="I257" s="132"/>
       <c r="K257" s="59"/>
       <c r="L257" s="61"/>
     </row>
@@ -7074,14 +7065,14 @@
         <v>142</v>
       </c>
       <c r="C258" s="77"/>
-      <c r="D258" s="127" t="s">
+      <c r="D258" s="149" t="s">
         <v>143</v>
       </c>
-      <c r="E258" s="127"/>
-      <c r="F258" s="127" t="s">
+      <c r="E258" s="149"/>
+      <c r="F258" s="149" t="s">
         <v>144</v>
       </c>
-      <c r="G258" s="127"/>
+      <c r="G258" s="149"/>
       <c r="H258" s="29"/>
       <c r="O258" s="25"/>
       <c r="P258" s="29"/>
@@ -7091,14 +7082,14 @@
         <v>138</v>
       </c>
       <c r="C259" s="54"/>
-      <c r="D259" s="129" t="s">
+      <c r="D259" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="E259" s="129"/>
-      <c r="F259" s="128">
+      <c r="E259" s="131"/>
+      <c r="F259" s="150">
         <v>10000000</v>
       </c>
-      <c r="G259" s="128"/>
+      <c r="G259" s="150"/>
       <c r="H259" s="48"/>
       <c r="I259" s="25"/>
       <c r="O259" s="47"/>
@@ -7109,14 +7100,14 @@
         <v>140</v>
       </c>
       <c r="C260" s="54"/>
-      <c r="D260" s="129" t="s">
+      <c r="D260" s="131" t="s">
         <v>141</v>
       </c>
-      <c r="E260" s="129"/>
-      <c r="F260" s="128">
+      <c r="E260" s="131"/>
+      <c r="F260" s="150">
         <v>20000000</v>
       </c>
-      <c r="G260" s="128"/>
+      <c r="G260" s="150"/>
       <c r="H260" s="48"/>
       <c r="O260" s="47"/>
       <c r="P260" s="66"/>
@@ -7185,16 +7176,16 @@
     </row>
     <row r="264" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
-      <c r="B264" s="125" t="s">
+      <c r="B264" s="134" t="s">
         <v>203</v>
       </c>
-      <c r="C264" s="125"/>
-      <c r="D264" s="125"/>
-      <c r="E264" s="125"/>
-      <c r="F264" s="125"/>
-      <c r="G264" s="125"/>
-      <c r="H264" s="125"/>
-      <c r="I264" s="125"/>
+      <c r="C264" s="134"/>
+      <c r="D264" s="134"/>
+      <c r="E264" s="134"/>
+      <c r="F264" s="134"/>
+      <c r="G264" s="134"/>
+      <c r="H264" s="134"/>
+      <c r="I264" s="134"/>
       <c r="P264" s="66"/>
       <c r="Q264" s="35"/>
       <c r="R264" s="35"/>
@@ -7203,39 +7194,39 @@
     </row>
     <row r="265" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
-      <c r="B265" s="125"/>
-      <c r="C265" s="125"/>
-      <c r="D265" s="125"/>
-      <c r="E265" s="125"/>
-      <c r="F265" s="125"/>
-      <c r="G265" s="125"/>
-      <c r="H265" s="125"/>
-      <c r="I265" s="125"/>
+      <c r="B265" s="134"/>
+      <c r="C265" s="134"/>
+      <c r="D265" s="134"/>
+      <c r="E265" s="134"/>
+      <c r="F265" s="134"/>
+      <c r="G265" s="134"/>
+      <c r="H265" s="134"/>
+      <c r="I265" s="134"/>
       <c r="P265" s="66"/>
     </row>
     <row r="266" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
-      <c r="B266" s="125"/>
-      <c r="C266" s="125"/>
-      <c r="D266" s="125"/>
-      <c r="E266" s="125"/>
-      <c r="F266" s="125"/>
-      <c r="G266" s="125"/>
-      <c r="H266" s="125"/>
-      <c r="I266" s="125"/>
+      <c r="B266" s="134"/>
+      <c r="C266" s="134"/>
+      <c r="D266" s="134"/>
+      <c r="E266" s="134"/>
+      <c r="F266" s="134"/>
+      <c r="G266" s="134"/>
+      <c r="H266" s="134"/>
+      <c r="I266" s="134"/>
       <c r="P266" s="66"/>
       <c r="S266" s="34"/>
     </row>
     <row r="267" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
-      <c r="B267" s="125"/>
-      <c r="C267" s="125"/>
-      <c r="D267" s="125"/>
-      <c r="E267" s="125"/>
-      <c r="F267" s="125"/>
-      <c r="G267" s="125"/>
-      <c r="H267" s="125"/>
-      <c r="I267" s="125"/>
+      <c r="B267" s="134"/>
+      <c r="C267" s="134"/>
+      <c r="D267" s="134"/>
+      <c r="E267" s="134"/>
+      <c r="F267" s="134"/>
+      <c r="G267" s="134"/>
+      <c r="H267" s="134"/>
+      <c r="I267" s="134"/>
       <c r="P267" s="66"/>
       <c r="Q267" s="16"/>
       <c r="R267" s="16"/>
@@ -7281,43 +7272,43 @@
       <c r="P269" s="42"/>
     </row>
     <row r="270" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="125" t="s">
+      <c r="B270" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="C270" s="125"/>
-      <c r="D270" s="125"/>
-      <c r="E270" s="125"/>
-      <c r="F270" s="125"/>
-      <c r="G270" s="125"/>
-      <c r="H270" s="125"/>
-      <c r="I270" s="125"/>
+      <c r="C270" s="134"/>
+      <c r="D270" s="134"/>
+      <c r="E270" s="134"/>
+      <c r="F270" s="134"/>
+      <c r="G270" s="134"/>
+      <c r="H270" s="134"/>
+      <c r="I270" s="134"/>
     </row>
     <row r="271" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="125"/>
-      <c r="C271" s="125"/>
-      <c r="D271" s="125"/>
-      <c r="E271" s="125"/>
-      <c r="F271" s="125"/>
-      <c r="G271" s="125"/>
-      <c r="H271" s="125"/>
-      <c r="I271" s="125"/>
+      <c r="B271" s="134"/>
+      <c r="C271" s="134"/>
+      <c r="D271" s="134"/>
+      <c r="E271" s="134"/>
+      <c r="F271" s="134"/>
+      <c r="G271" s="134"/>
+      <c r="H271" s="134"/>
+      <c r="I271" s="134"/>
     </row>
     <row r="272" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="123" t="s">
+      <c r="B272" s="127" t="s">
         <v>282</v>
       </c>
-      <c r="C272" s="123"/>
-      <c r="D272" s="163" t="s">
+      <c r="C272" s="127"/>
+      <c r="D272" s="128" t="s">
         <v>283</v>
       </c>
-      <c r="E272" s="163" t="s">
+      <c r="E272" s="128" t="s">
         <v>284</v>
       </c>
-      <c r="F272" s="163" t="s">
+      <c r="F272" s="128" t="s">
         <v>295</v>
       </c>
-      <c r="G272" s="163"/>
-      <c r="H272" s="123" t="s">
+      <c r="G272" s="128"/>
+      <c r="H272" s="127" t="s">
         <v>285</v>
       </c>
       <c r="I272" s="25"/>
@@ -7328,13 +7319,13 @@
       <c r="P272" s="116"/>
     </row>
     <row r="273" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="123"/>
-      <c r="C273" s="123"/>
-      <c r="D273" s="164"/>
-      <c r="E273" s="164"/>
-      <c r="F273" s="164"/>
-      <c r="G273" s="164"/>
-      <c r="H273" s="123"/>
+      <c r="B273" s="127"/>
+      <c r="C273" s="127"/>
+      <c r="D273" s="129"/>
+      <c r="E273" s="129"/>
+      <c r="F273" s="129"/>
+      <c r="G273" s="129"/>
+      <c r="H273" s="127"/>
       <c r="I273" s="25"/>
       <c r="L273" s="59"/>
       <c r="M273" s="59"/>
@@ -7343,8 +7334,8 @@
       <c r="P273" s="116"/>
     </row>
     <row r="274" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="159"/>
-      <c r="C274" s="159"/>
+      <c r="B274" s="123"/>
+      <c r="C274" s="123"/>
       <c r="D274" s="117"/>
       <c r="E274" s="117"/>
       <c r="F274" s="117"/>
@@ -7358,8 +7349,8 @@
       <c r="P274" s="116"/>
     </row>
     <row r="275" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="161"/>
-      <c r="C275" s="162"/>
+      <c r="B275" s="125"/>
+      <c r="C275" s="126"/>
       <c r="D275" s="117"/>
       <c r="E275" s="117"/>
       <c r="F275" s="117"/>
@@ -7373,10 +7364,10 @@
       <c r="P275" s="116"/>
     </row>
     <row r="276" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="159" t="s">
+      <c r="B276" s="123" t="s">
         <v>286</v>
       </c>
-      <c r="C276" s="159"/>
+      <c r="C276" s="123"/>
       <c r="D276" s="119"/>
       <c r="E276" s="117"/>
       <c r="F276" s="117"/>
@@ -7390,14 +7381,14 @@
       <c r="P276" s="116"/>
     </row>
     <row r="277" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="160" t="s">
+      <c r="B277" s="124" t="s">
         <v>287</v>
       </c>
-      <c r="C277" s="160"/>
-      <c r="D277" s="160"/>
-      <c r="E277" s="160"/>
-      <c r="F277" s="160"/>
-      <c r="G277" s="160"/>
+      <c r="C277" s="124"/>
+      <c r="D277" s="124"/>
+      <c r="E277" s="124"/>
+      <c r="F277" s="124"/>
+      <c r="G277" s="124"/>
       <c r="H277" s="118"/>
       <c r="I277" s="25"/>
       <c r="L277" s="59"/>
@@ -7407,14 +7398,14 @@
       <c r="P277" s="116"/>
     </row>
     <row r="278" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="160" t="s">
+      <c r="B278" s="124" t="s">
         <v>288</v>
       </c>
-      <c r="C278" s="160"/>
-      <c r="D278" s="160"/>
-      <c r="E278" s="160"/>
-      <c r="F278" s="160"/>
-      <c r="G278" s="160"/>
+      <c r="C278" s="124"/>
+      <c r="D278" s="124"/>
+      <c r="E278" s="124"/>
+      <c r="F278" s="124"/>
+      <c r="G278" s="124"/>
       <c r="H278" s="118"/>
       <c r="I278" s="25"/>
       <c r="L278" s="59"/>
@@ -7469,28 +7460,28 @@
       <c r="P281" s="66"/>
     </row>
     <row r="282" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="125" t="s">
+      <c r="B282" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="C282" s="125"/>
-      <c r="D282" s="125"/>
-      <c r="E282" s="125"/>
-      <c r="F282" s="125"/>
-      <c r="G282" s="125"/>
-      <c r="H282" s="125"/>
-      <c r="I282" s="125"/>
+      <c r="C282" s="134"/>
+      <c r="D282" s="134"/>
+      <c r="E282" s="134"/>
+      <c r="F282" s="134"/>
+      <c r="G282" s="134"/>
+      <c r="H282" s="134"/>
+      <c r="I282" s="134"/>
       <c r="P282" s="66"/>
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" s="46"/>
-      <c r="B283" s="125"/>
-      <c r="C283" s="125"/>
-      <c r="D283" s="125"/>
-      <c r="E283" s="125"/>
-      <c r="F283" s="125"/>
-      <c r="G283" s="125"/>
-      <c r="H283" s="125"/>
-      <c r="I283" s="125"/>
+      <c r="B283" s="134"/>
+      <c r="C283" s="134"/>
+      <c r="D283" s="134"/>
+      <c r="E283" s="134"/>
+      <c r="F283" s="134"/>
+      <c r="G283" s="134"/>
+      <c r="H283" s="134"/>
+      <c r="I283" s="134"/>
       <c r="P283" s="66"/>
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.25">
@@ -7732,11 +7723,11 @@
       <c r="B309" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F309" s="152">
+      <c r="F309" s="139">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
-      </c>
-      <c r="G309" s="152"/>
+        <v>45306</v>
+      </c>
+      <c r="G309" s="139"/>
       <c r="K309" s="45"/>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
@@ -7756,374 +7747,374 @@
       <c r="A312" s="28">
         <v>1</v>
       </c>
-      <c r="B312" s="151" t="s">
+      <c r="B312" s="140" t="s">
         <v>162</v>
       </c>
-      <c r="C312" s="151"/>
-      <c r="D312" s="151"/>
-      <c r="E312" s="151"/>
-      <c r="F312" s="151"/>
-      <c r="G312" s="151"/>
-      <c r="H312" s="151"/>
-      <c r="I312" s="151"/>
+      <c r="C312" s="140"/>
+      <c r="D312" s="140"/>
+      <c r="E312" s="140"/>
+      <c r="F312" s="140"/>
+      <c r="G312" s="140"/>
+      <c r="H312" s="140"/>
+      <c r="I312" s="140"/>
     </row>
     <row r="313" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="28">
         <v>2</v>
       </c>
-      <c r="B313" s="151" t="s">
+      <c r="B313" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="C313" s="151"/>
-      <c r="D313" s="151"/>
-      <c r="E313" s="151"/>
-      <c r="F313" s="151"/>
-      <c r="G313" s="151"/>
-      <c r="H313" s="151"/>
-      <c r="I313" s="151"/>
+      <c r="C313" s="140"/>
+      <c r="D313" s="140"/>
+      <c r="E313" s="140"/>
+      <c r="F313" s="140"/>
+      <c r="G313" s="140"/>
+      <c r="H313" s="140"/>
+      <c r="I313" s="140"/>
     </row>
     <row r="314" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="28">
         <v>3</v>
       </c>
-      <c r="B314" s="151" t="s">
+      <c r="B314" s="140" t="s">
         <v>164</v>
       </c>
-      <c r="C314" s="151"/>
-      <c r="D314" s="151"/>
-      <c r="E314" s="151"/>
-      <c r="F314" s="151"/>
-      <c r="G314" s="151"/>
-      <c r="H314" s="151"/>
-      <c r="I314" s="151"/>
+      <c r="C314" s="140"/>
+      <c r="D314" s="140"/>
+      <c r="E314" s="140"/>
+      <c r="F314" s="140"/>
+      <c r="G314" s="140"/>
+      <c r="H314" s="140"/>
+      <c r="I314" s="140"/>
     </row>
     <row r="315" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="28">
         <v>4</v>
       </c>
-      <c r="B315" s="151" t="s">
+      <c r="B315" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="C315" s="151"/>
-      <c r="D315" s="151"/>
-      <c r="E315" s="151"/>
-      <c r="F315" s="151"/>
-      <c r="G315" s="151"/>
-      <c r="H315" s="151"/>
-      <c r="I315" s="151"/>
+      <c r="C315" s="140"/>
+      <c r="D315" s="140"/>
+      <c r="E315" s="140"/>
+      <c r="F315" s="140"/>
+      <c r="G315" s="140"/>
+      <c r="H315" s="140"/>
+      <c r="I315" s="140"/>
     </row>
     <row r="316" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="28">
         <v>5</v>
       </c>
-      <c r="B316" s="151" t="s">
+      <c r="B316" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="C316" s="151"/>
-      <c r="D316" s="151"/>
-      <c r="E316" s="151"/>
-      <c r="F316" s="151"/>
-      <c r="G316" s="151"/>
-      <c r="H316" s="151"/>
-      <c r="I316" s="151"/>
+      <c r="C316" s="140"/>
+      <c r="D316" s="140"/>
+      <c r="E316" s="140"/>
+      <c r="F316" s="140"/>
+      <c r="G316" s="140"/>
+      <c r="H316" s="140"/>
+      <c r="I316" s="140"/>
     </row>
     <row r="317" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="28"/>
-      <c r="B317" s="151" t="s">
+      <c r="B317" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="C317" s="151"/>
-      <c r="D317" s="151"/>
-      <c r="E317" s="151"/>
-      <c r="F317" s="151"/>
-      <c r="G317" s="151"/>
-      <c r="H317" s="151"/>
-      <c r="I317" s="151"/>
+      <c r="C317" s="140"/>
+      <c r="D317" s="140"/>
+      <c r="E317" s="140"/>
+      <c r="F317" s="140"/>
+      <c r="G317" s="140"/>
+      <c r="H317" s="140"/>
+      <c r="I317" s="140"/>
     </row>
     <row r="318" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="28"/>
-      <c r="B318" s="151" t="s">
+      <c r="B318" s="140" t="s">
         <v>168</v>
       </c>
-      <c r="C318" s="151"/>
-      <c r="D318" s="151"/>
-      <c r="E318" s="151"/>
-      <c r="F318" s="151"/>
-      <c r="G318" s="151"/>
-      <c r="H318" s="151"/>
-      <c r="I318" s="151"/>
+      <c r="C318" s="140"/>
+      <c r="D318" s="140"/>
+      <c r="E318" s="140"/>
+      <c r="F318" s="140"/>
+      <c r="G318" s="140"/>
+      <c r="H318" s="140"/>
+      <c r="I318" s="140"/>
     </row>
     <row r="319" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="28"/>
-      <c r="B319" s="151" t="s">
+      <c r="B319" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="C319" s="151"/>
-      <c r="D319" s="151"/>
-      <c r="E319" s="151"/>
-      <c r="F319" s="151"/>
-      <c r="G319" s="151"/>
-      <c r="H319" s="151"/>
-      <c r="I319" s="151"/>
+      <c r="C319" s="140"/>
+      <c r="D319" s="140"/>
+      <c r="E319" s="140"/>
+      <c r="F319" s="140"/>
+      <c r="G319" s="140"/>
+      <c r="H319" s="140"/>
+      <c r="I319" s="140"/>
     </row>
     <row r="320" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="28">
         <v>6</v>
       </c>
-      <c r="B320" s="151" t="s">
+      <c r="B320" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="C320" s="151"/>
-      <c r="D320" s="151"/>
-      <c r="E320" s="151"/>
-      <c r="F320" s="151"/>
-      <c r="G320" s="151"/>
-      <c r="H320" s="151"/>
-      <c r="I320" s="151"/>
+      <c r="C320" s="140"/>
+      <c r="D320" s="140"/>
+      <c r="E320" s="140"/>
+      <c r="F320" s="140"/>
+      <c r="G320" s="140"/>
+      <c r="H320" s="140"/>
+      <c r="I320" s="140"/>
     </row>
     <row r="321" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="28"/>
-      <c r="B321" s="151" t="s">
+      <c r="B321" s="140" t="s">
         <v>171</v>
       </c>
-      <c r="C321" s="151"/>
-      <c r="D321" s="151"/>
-      <c r="E321" s="151"/>
-      <c r="F321" s="151"/>
-      <c r="G321" s="151"/>
-      <c r="H321" s="151"/>
-      <c r="I321" s="151"/>
+      <c r="C321" s="140"/>
+      <c r="D321" s="140"/>
+      <c r="E321" s="140"/>
+      <c r="F321" s="140"/>
+      <c r="G321" s="140"/>
+      <c r="H321" s="140"/>
+      <c r="I321" s="140"/>
     </row>
     <row r="322" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="28"/>
-      <c r="B322" s="151" t="s">
+      <c r="B322" s="140" t="s">
         <v>172</v>
       </c>
-      <c r="C322" s="151"/>
-      <c r="D322" s="151"/>
-      <c r="E322" s="151"/>
-      <c r="F322" s="151"/>
-      <c r="G322" s="151"/>
-      <c r="H322" s="151"/>
-      <c r="I322" s="151"/>
+      <c r="C322" s="140"/>
+      <c r="D322" s="140"/>
+      <c r="E322" s="140"/>
+      <c r="F322" s="140"/>
+      <c r="G322" s="140"/>
+      <c r="H322" s="140"/>
+      <c r="I322" s="140"/>
     </row>
     <row r="323" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="28">
         <v>7</v>
       </c>
-      <c r="B323" s="151" t="s">
+      <c r="B323" s="140" t="s">
         <v>173</v>
       </c>
-      <c r="C323" s="151"/>
-      <c r="D323" s="151"/>
-      <c r="E323" s="151"/>
-      <c r="F323" s="151"/>
-      <c r="G323" s="151"/>
-      <c r="H323" s="151"/>
-      <c r="I323" s="151"/>
+      <c r="C323" s="140"/>
+      <c r="D323" s="140"/>
+      <c r="E323" s="140"/>
+      <c r="F323" s="140"/>
+      <c r="G323" s="140"/>
+      <c r="H323" s="140"/>
+      <c r="I323" s="140"/>
     </row>
     <row r="324" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="28">
         <v>8</v>
       </c>
-      <c r="B324" s="151" t="s">
+      <c r="B324" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="C324" s="151"/>
-      <c r="D324" s="151"/>
-      <c r="E324" s="151"/>
-      <c r="F324" s="151"/>
-      <c r="G324" s="151"/>
-      <c r="H324" s="151"/>
-      <c r="I324" s="151"/>
+      <c r="C324" s="140"/>
+      <c r="D324" s="140"/>
+      <c r="E324" s="140"/>
+      <c r="F324" s="140"/>
+      <c r="G324" s="140"/>
+      <c r="H324" s="140"/>
+      <c r="I324" s="140"/>
     </row>
     <row r="325" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="28"/>
-      <c r="B325" s="151" t="s">
+      <c r="B325" s="140" t="s">
         <v>175</v>
       </c>
-      <c r="C325" s="151"/>
-      <c r="D325" s="151"/>
-      <c r="E325" s="151"/>
-      <c r="F325" s="151"/>
-      <c r="G325" s="151"/>
-      <c r="H325" s="151"/>
-      <c r="I325" s="151"/>
+      <c r="C325" s="140"/>
+      <c r="D325" s="140"/>
+      <c r="E325" s="140"/>
+      <c r="F325" s="140"/>
+      <c r="G325" s="140"/>
+      <c r="H325" s="140"/>
+      <c r="I325" s="140"/>
     </row>
     <row r="326" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="28"/>
-      <c r="B326" s="151" t="s">
+      <c r="B326" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="C326" s="151"/>
-      <c r="D326" s="151"/>
-      <c r="E326" s="151"/>
-      <c r="F326" s="151"/>
-      <c r="G326" s="151"/>
-      <c r="H326" s="151"/>
-      <c r="I326" s="151"/>
+      <c r="C326" s="140"/>
+      <c r="D326" s="140"/>
+      <c r="E326" s="140"/>
+      <c r="F326" s="140"/>
+      <c r="G326" s="140"/>
+      <c r="H326" s="140"/>
+      <c r="I326" s="140"/>
     </row>
     <row r="327" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="28"/>
-      <c r="B327" s="151" t="s">
+      <c r="B327" s="140" t="s">
         <v>176</v>
       </c>
-      <c r="C327" s="151"/>
-      <c r="D327" s="151"/>
-      <c r="E327" s="151"/>
-      <c r="F327" s="151"/>
-      <c r="G327" s="151"/>
-      <c r="H327" s="151"/>
-      <c r="I327" s="151"/>
+      <c r="C327" s="140"/>
+      <c r="D327" s="140"/>
+      <c r="E327" s="140"/>
+      <c r="F327" s="140"/>
+      <c r="G327" s="140"/>
+      <c r="H327" s="140"/>
+      <c r="I327" s="140"/>
     </row>
     <row r="328" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="28"/>
-      <c r="B328" s="151" t="s">
+      <c r="B328" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C328" s="151"/>
-      <c r="D328" s="151"/>
-      <c r="E328" s="151"/>
-      <c r="F328" s="151"/>
-      <c r="G328" s="151"/>
-      <c r="H328" s="151"/>
-      <c r="I328" s="151"/>
+      <c r="C328" s="140"/>
+      <c r="D328" s="140"/>
+      <c r="E328" s="140"/>
+      <c r="F328" s="140"/>
+      <c r="G328" s="140"/>
+      <c r="H328" s="140"/>
+      <c r="I328" s="140"/>
     </row>
     <row r="329" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="28"/>
-      <c r="B329" s="151" t="s">
+      <c r="B329" s="140" t="s">
         <v>178</v>
       </c>
-      <c r="C329" s="151"/>
-      <c r="D329" s="151"/>
-      <c r="E329" s="151"/>
-      <c r="F329" s="151"/>
-      <c r="G329" s="151"/>
-      <c r="H329" s="151"/>
-      <c r="I329" s="151"/>
+      <c r="C329" s="140"/>
+      <c r="D329" s="140"/>
+      <c r="E329" s="140"/>
+      <c r="F329" s="140"/>
+      <c r="G329" s="140"/>
+      <c r="H329" s="140"/>
+      <c r="I329" s="140"/>
     </row>
     <row r="330" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="28"/>
-      <c r="B330" s="151" t="s">
+      <c r="B330" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="C330" s="151"/>
-      <c r="D330" s="151"/>
-      <c r="E330" s="151"/>
-      <c r="F330" s="151"/>
-      <c r="G330" s="151"/>
-      <c r="H330" s="151"/>
-      <c r="I330" s="151"/>
+      <c r="C330" s="140"/>
+      <c r="D330" s="140"/>
+      <c r="E330" s="140"/>
+      <c r="F330" s="140"/>
+      <c r="G330" s="140"/>
+      <c r="H330" s="140"/>
+      <c r="I330" s="140"/>
     </row>
     <row r="331" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="28">
         <v>9</v>
       </c>
-      <c r="B331" s="151" t="s">
+      <c r="B331" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C331" s="151"/>
-      <c r="D331" s="151"/>
-      <c r="E331" s="151"/>
-      <c r="F331" s="151"/>
-      <c r="G331" s="151"/>
-      <c r="H331" s="151"/>
-      <c r="I331" s="151"/>
+      <c r="C331" s="140"/>
+      <c r="D331" s="140"/>
+      <c r="E331" s="140"/>
+      <c r="F331" s="140"/>
+      <c r="G331" s="140"/>
+      <c r="H331" s="140"/>
+      <c r="I331" s="140"/>
     </row>
     <row r="332" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="28">
         <v>10</v>
       </c>
-      <c r="B332" s="151" t="s">
+      <c r="B332" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C332" s="151"/>
-      <c r="D332" s="151"/>
-      <c r="E332" s="151"/>
-      <c r="F332" s="151"/>
-      <c r="G332" s="151"/>
-      <c r="H332" s="151"/>
-      <c r="I332" s="151"/>
+      <c r="C332" s="140"/>
+      <c r="D332" s="140"/>
+      <c r="E332" s="140"/>
+      <c r="F332" s="140"/>
+      <c r="G332" s="140"/>
+      <c r="H332" s="140"/>
+      <c r="I332" s="140"/>
     </row>
     <row r="333" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="28"/>
-      <c r="B333" s="151" t="s">
+      <c r="B333" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="C333" s="151"/>
-      <c r="D333" s="151"/>
-      <c r="E333" s="151"/>
-      <c r="F333" s="151"/>
-      <c r="G333" s="151"/>
-      <c r="H333" s="151"/>
-      <c r="I333" s="151"/>
+      <c r="C333" s="140"/>
+      <c r="D333" s="140"/>
+      <c r="E333" s="140"/>
+      <c r="F333" s="140"/>
+      <c r="G333" s="140"/>
+      <c r="H333" s="140"/>
+      <c r="I333" s="140"/>
     </row>
     <row r="334" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="28"/>
-      <c r="B334" s="151" t="s">
+      <c r="B334" s="140" t="s">
         <v>183</v>
       </c>
-      <c r="C334" s="151"/>
-      <c r="D334" s="151"/>
-      <c r="E334" s="151"/>
-      <c r="F334" s="151"/>
-      <c r="G334" s="151"/>
-      <c r="H334" s="151"/>
-      <c r="I334" s="151"/>
+      <c r="C334" s="140"/>
+      <c r="D334" s="140"/>
+      <c r="E334" s="140"/>
+      <c r="F334" s="140"/>
+      <c r="G334" s="140"/>
+      <c r="H334" s="140"/>
+      <c r="I334" s="140"/>
     </row>
     <row r="335" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="28"/>
-      <c r="B335" s="151" t="s">
+      <c r="B335" s="140" t="s">
         <v>184</v>
       </c>
-      <c r="C335" s="151"/>
-      <c r="D335" s="151"/>
-      <c r="E335" s="151"/>
-      <c r="F335" s="151"/>
-      <c r="G335" s="151"/>
-      <c r="H335" s="151"/>
-      <c r="I335" s="151"/>
+      <c r="C335" s="140"/>
+      <c r="D335" s="140"/>
+      <c r="E335" s="140"/>
+      <c r="F335" s="140"/>
+      <c r="G335" s="140"/>
+      <c r="H335" s="140"/>
+      <c r="I335" s="140"/>
     </row>
     <row r="336" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="28"/>
-      <c r="B336" s="151" t="s">
+      <c r="B336" s="140" t="s">
         <v>159</v>
       </c>
-      <c r="C336" s="151"/>
-      <c r="D336" s="151"/>
-      <c r="E336" s="151"/>
-      <c r="F336" s="151"/>
-      <c r="G336" s="151"/>
-      <c r="H336" s="151"/>
-      <c r="I336" s="151"/>
+      <c r="C336" s="140"/>
+      <c r="D336" s="140"/>
+      <c r="E336" s="140"/>
+      <c r="F336" s="140"/>
+      <c r="G336" s="140"/>
+      <c r="H336" s="140"/>
+      <c r="I336" s="140"/>
     </row>
     <row r="337" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="28">
         <v>11</v>
       </c>
-      <c r="B337" s="151" t="s">
+      <c r="B337" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="C337" s="151"/>
-      <c r="D337" s="151"/>
-      <c r="E337" s="151"/>
-      <c r="F337" s="151"/>
-      <c r="G337" s="151"/>
-      <c r="H337" s="151"/>
-      <c r="I337" s="151"/>
+      <c r="C337" s="140"/>
+      <c r="D337" s="140"/>
+      <c r="E337" s="140"/>
+      <c r="F337" s="140"/>
+      <c r="G337" s="140"/>
+      <c r="H337" s="140"/>
+      <c r="I337" s="140"/>
     </row>
     <row r="338" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="28"/>
-      <c r="B338" s="151" t="s">
+      <c r="B338" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="C338" s="151"/>
-      <c r="D338" s="151"/>
-      <c r="E338" s="151"/>
-      <c r="F338" s="151"/>
-      <c r="G338" s="151"/>
-      <c r="H338" s="151"/>
-      <c r="I338" s="151"/>
+      <c r="C338" s="140"/>
+      <c r="D338" s="140"/>
+      <c r="E338" s="140"/>
+      <c r="F338" s="140"/>
+      <c r="G338" s="140"/>
+      <c r="H338" s="140"/>
+      <c r="I338" s="140"/>
     </row>
     <row r="339" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="28"/>
@@ -8144,236 +8135,236 @@
     </row>
     <row r="340" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="28"/>
-      <c r="B340" s="151" t="s">
+      <c r="B340" s="140" t="s">
         <v>187</v>
       </c>
-      <c r="C340" s="151"/>
-      <c r="D340" s="151"/>
-      <c r="E340" s="151"/>
-      <c r="F340" s="151"/>
-      <c r="G340" s="151"/>
-      <c r="H340" s="151"/>
-      <c r="I340" s="151"/>
+      <c r="C340" s="140"/>
+      <c r="D340" s="140"/>
+      <c r="E340" s="140"/>
+      <c r="F340" s="140"/>
+      <c r="G340" s="140"/>
+      <c r="H340" s="140"/>
+      <c r="I340" s="140"/>
     </row>
     <row r="341" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="28">
         <v>12</v>
       </c>
-      <c r="B341" s="151" t="s">
+      <c r="B341" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="C341" s="151"/>
-      <c r="D341" s="151"/>
-      <c r="E341" s="151"/>
-      <c r="F341" s="151"/>
-      <c r="G341" s="151"/>
-      <c r="H341" s="151"/>
-      <c r="I341" s="151"/>
+      <c r="C341" s="140"/>
+      <c r="D341" s="140"/>
+      <c r="E341" s="140"/>
+      <c r="F341" s="140"/>
+      <c r="G341" s="140"/>
+      <c r="H341" s="140"/>
+      <c r="I341" s="140"/>
     </row>
     <row r="342" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="28"/>
-      <c r="B342" s="151" t="s">
+      <c r="B342" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="C342" s="151"/>
-      <c r="D342" s="151"/>
-      <c r="E342" s="151"/>
-      <c r="F342" s="151"/>
-      <c r="G342" s="151"/>
-      <c r="H342" s="151"/>
-      <c r="I342" s="151"/>
+      <c r="C342" s="140"/>
+      <c r="D342" s="140"/>
+      <c r="E342" s="140"/>
+      <c r="F342" s="140"/>
+      <c r="G342" s="140"/>
+      <c r="H342" s="140"/>
+      <c r="I342" s="140"/>
     </row>
     <row r="343" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="28"/>
-      <c r="B343" s="151" t="s">
+      <c r="B343" s="140" t="s">
         <v>190</v>
       </c>
-      <c r="C343" s="151"/>
-      <c r="D343" s="151"/>
-      <c r="E343" s="151"/>
-      <c r="F343" s="151"/>
-      <c r="G343" s="151"/>
-      <c r="H343" s="151"/>
-      <c r="I343" s="151"/>
+      <c r="C343" s="140"/>
+      <c r="D343" s="140"/>
+      <c r="E343" s="140"/>
+      <c r="F343" s="140"/>
+      <c r="G343" s="140"/>
+      <c r="H343" s="140"/>
+      <c r="I343" s="140"/>
     </row>
     <row r="344" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="28"/>
-      <c r="B344" s="151" t="s">
+      <c r="B344" s="140" t="s">
         <v>191</v>
       </c>
-      <c r="C344" s="151"/>
-      <c r="D344" s="151"/>
-      <c r="E344" s="151"/>
-      <c r="F344" s="151"/>
-      <c r="G344" s="151"/>
-      <c r="H344" s="151"/>
-      <c r="I344" s="151"/>
+      <c r="C344" s="140"/>
+      <c r="D344" s="140"/>
+      <c r="E344" s="140"/>
+      <c r="F344" s="140"/>
+      <c r="G344" s="140"/>
+      <c r="H344" s="140"/>
+      <c r="I344" s="140"/>
     </row>
     <row r="345" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="28"/>
-      <c r="B345" s="151" t="s">
+      <c r="B345" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="C345" s="151"/>
-      <c r="D345" s="151"/>
-      <c r="E345" s="151"/>
-      <c r="F345" s="151"/>
-      <c r="G345" s="151"/>
-      <c r="H345" s="151"/>
-      <c r="I345" s="151"/>
+      <c r="C345" s="140"/>
+      <c r="D345" s="140"/>
+      <c r="E345" s="140"/>
+      <c r="F345" s="140"/>
+      <c r="G345" s="140"/>
+      <c r="H345" s="140"/>
+      <c r="I345" s="140"/>
     </row>
     <row r="346" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="28">
         <v>13</v>
       </c>
-      <c r="B346" s="151" t="s">
+      <c r="B346" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="C346" s="151"/>
-      <c r="D346" s="151"/>
-      <c r="E346" s="151"/>
-      <c r="F346" s="151"/>
-      <c r="G346" s="151"/>
-      <c r="H346" s="151"/>
-      <c r="I346" s="151"/>
+      <c r="C346" s="140"/>
+      <c r="D346" s="140"/>
+      <c r="E346" s="140"/>
+      <c r="F346" s="140"/>
+      <c r="G346" s="140"/>
+      <c r="H346" s="140"/>
+      <c r="I346" s="140"/>
     </row>
     <row r="347" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="28"/>
-      <c r="B347" s="151" t="s">
+      <c r="B347" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="C347" s="151"/>
-      <c r="D347" s="151"/>
-      <c r="E347" s="151"/>
-      <c r="F347" s="151"/>
-      <c r="G347" s="151"/>
-      <c r="H347" s="151"/>
-      <c r="I347" s="151"/>
+      <c r="C347" s="140"/>
+      <c r="D347" s="140"/>
+      <c r="E347" s="140"/>
+      <c r="F347" s="140"/>
+      <c r="G347" s="140"/>
+      <c r="H347" s="140"/>
+      <c r="I347" s="140"/>
     </row>
     <row r="348" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="28"/>
-      <c r="B348" s="151" t="s">
+      <c r="B348" s="140" t="s">
         <v>194</v>
       </c>
-      <c r="C348" s="151"/>
-      <c r="D348" s="151"/>
-      <c r="E348" s="151"/>
-      <c r="F348" s="151"/>
-      <c r="G348" s="151"/>
-      <c r="H348" s="151"/>
-      <c r="I348" s="151"/>
+      <c r="C348" s="140"/>
+      <c r="D348" s="140"/>
+      <c r="E348" s="140"/>
+      <c r="F348" s="140"/>
+      <c r="G348" s="140"/>
+      <c r="H348" s="140"/>
+      <c r="I348" s="140"/>
     </row>
     <row r="349" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="28">
         <v>14</v>
       </c>
-      <c r="B349" s="151" t="s">
+      <c r="B349" s="140" t="s">
         <v>195</v>
       </c>
-      <c r="C349" s="151"/>
-      <c r="D349" s="151"/>
-      <c r="E349" s="151"/>
-      <c r="F349" s="151"/>
-      <c r="G349" s="151"/>
-      <c r="H349" s="151"/>
-      <c r="I349" s="151"/>
+      <c r="C349" s="140"/>
+      <c r="D349" s="140"/>
+      <c r="E349" s="140"/>
+      <c r="F349" s="140"/>
+      <c r="G349" s="140"/>
+      <c r="H349" s="140"/>
+      <c r="I349" s="140"/>
     </row>
     <row r="350" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="28"/>
-      <c r="B350" s="151" t="s">
+      <c r="B350" s="140" t="s">
         <v>196</v>
       </c>
-      <c r="C350" s="151"/>
-      <c r="D350" s="151"/>
-      <c r="E350" s="151"/>
-      <c r="F350" s="151"/>
-      <c r="G350" s="151"/>
-      <c r="H350" s="151"/>
-      <c r="I350" s="151"/>
+      <c r="C350" s="140"/>
+      <c r="D350" s="140"/>
+      <c r="E350" s="140"/>
+      <c r="F350" s="140"/>
+      <c r="G350" s="140"/>
+      <c r="H350" s="140"/>
+      <c r="I350" s="140"/>
     </row>
     <row r="351" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="28"/>
-      <c r="B351" s="151" t="s">
+      <c r="B351" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="C351" s="151"/>
-      <c r="D351" s="151"/>
-      <c r="E351" s="151"/>
-      <c r="F351" s="151"/>
-      <c r="G351" s="151"/>
-      <c r="H351" s="151"/>
-      <c r="I351" s="151"/>
+      <c r="C351" s="140"/>
+      <c r="D351" s="140"/>
+      <c r="E351" s="140"/>
+      <c r="F351" s="140"/>
+      <c r="G351" s="140"/>
+      <c r="H351" s="140"/>
+      <c r="I351" s="140"/>
     </row>
     <row r="352" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="28"/>
-      <c r="B352" s="151" t="s">
+      <c r="B352" s="140" t="s">
         <v>197</v>
       </c>
-      <c r="C352" s="151"/>
-      <c r="D352" s="151"/>
-      <c r="E352" s="151"/>
-      <c r="F352" s="151"/>
-      <c r="G352" s="151"/>
-      <c r="H352" s="151"/>
-      <c r="I352" s="151"/>
+      <c r="C352" s="140"/>
+      <c r="D352" s="140"/>
+      <c r="E352" s="140"/>
+      <c r="F352" s="140"/>
+      <c r="G352" s="140"/>
+      <c r="H352" s="140"/>
+      <c r="I352" s="140"/>
     </row>
     <row r="353" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="28"/>
-      <c r="B353" s="151" t="s">
+      <c r="B353" s="140" t="s">
         <v>198</v>
       </c>
-      <c r="C353" s="151"/>
-      <c r="D353" s="151"/>
-      <c r="E353" s="151"/>
-      <c r="F353" s="151"/>
-      <c r="G353" s="151"/>
-      <c r="H353" s="151"/>
-      <c r="I353" s="151"/>
+      <c r="C353" s="140"/>
+      <c r="D353" s="140"/>
+      <c r="E353" s="140"/>
+      <c r="F353" s="140"/>
+      <c r="G353" s="140"/>
+      <c r="H353" s="140"/>
+      <c r="I353" s="140"/>
     </row>
     <row r="354" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="28">
         <v>15</v>
       </c>
-      <c r="B354" s="151" t="s">
+      <c r="B354" s="140" t="s">
         <v>199</v>
       </c>
-      <c r="C354" s="151"/>
-      <c r="D354" s="151"/>
-      <c r="E354" s="151"/>
-      <c r="F354" s="151"/>
-      <c r="G354" s="151"/>
-      <c r="H354" s="151"/>
-      <c r="I354" s="151"/>
+      <c r="C354" s="140"/>
+      <c r="D354" s="140"/>
+      <c r="E354" s="140"/>
+      <c r="F354" s="140"/>
+      <c r="G354" s="140"/>
+      <c r="H354" s="140"/>
+      <c r="I354" s="140"/>
     </row>
     <row r="355" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="28">
         <v>16</v>
       </c>
-      <c r="B355" s="151" t="s">
+      <c r="B355" s="140" t="s">
         <v>200</v>
       </c>
-      <c r="C355" s="151"/>
-      <c r="D355" s="151"/>
-      <c r="E355" s="151"/>
-      <c r="F355" s="151"/>
-      <c r="G355" s="151"/>
-      <c r="H355" s="151"/>
-      <c r="I355" s="151"/>
+      <c r="C355" s="140"/>
+      <c r="D355" s="140"/>
+      <c r="E355" s="140"/>
+      <c r="F355" s="140"/>
+      <c r="G355" s="140"/>
+      <c r="H355" s="140"/>
+      <c r="I355" s="140"/>
     </row>
     <row r="356" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="28">
         <v>17</v>
       </c>
-      <c r="B356" s="151" t="s">
+      <c r="B356" s="140" t="s">
         <v>201</v>
       </c>
-      <c r="C356" s="151"/>
-      <c r="D356" s="151"/>
-      <c r="E356" s="151"/>
-      <c r="F356" s="151"/>
-      <c r="G356" s="151"/>
-      <c r="H356" s="151"/>
-      <c r="I356" s="151"/>
+      <c r="C356" s="140"/>
+      <c r="D356" s="140"/>
+      <c r="E356" s="140"/>
+      <c r="F356" s="140"/>
+      <c r="G356" s="140"/>
+      <c r="H356" s="140"/>
+      <c r="I356" s="140"/>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="52"/>
@@ -8391,104 +8382,7 @@
       <c r="A361" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="B277:G277"/>
-    <mergeCell ref="B278:G278"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B272:C273"/>
-    <mergeCell ref="D272:D273"/>
-    <mergeCell ref="E272:E273"/>
-    <mergeCell ref="F272:F273"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="G272:G273"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="B257:I257"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B225:I228"/>
-    <mergeCell ref="A61:I62"/>
-    <mergeCell ref="A68:I69"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D129:I129"/>
-    <mergeCell ref="F309:G309"/>
-    <mergeCell ref="B282:I283"/>
-    <mergeCell ref="B330:I330"/>
-    <mergeCell ref="B317:I317"/>
-    <mergeCell ref="B318:I318"/>
-    <mergeCell ref="B319:I319"/>
-    <mergeCell ref="B320:I320"/>
-    <mergeCell ref="B326:I326"/>
-    <mergeCell ref="B321:I321"/>
-    <mergeCell ref="B322:I322"/>
-    <mergeCell ref="B323:I323"/>
-    <mergeCell ref="B324:I324"/>
-    <mergeCell ref="B325:I325"/>
-    <mergeCell ref="B327:I327"/>
-    <mergeCell ref="B328:I328"/>
-    <mergeCell ref="B329:I329"/>
-    <mergeCell ref="B312:I312"/>
-    <mergeCell ref="B313:I313"/>
-    <mergeCell ref="B314:I314"/>
-    <mergeCell ref="B315:I315"/>
-    <mergeCell ref="B316:I316"/>
-    <mergeCell ref="B344:I344"/>
-    <mergeCell ref="B331:I331"/>
-    <mergeCell ref="B332:I332"/>
-    <mergeCell ref="B333:I333"/>
-    <mergeCell ref="B334:I334"/>
-    <mergeCell ref="B335:I335"/>
-    <mergeCell ref="B336:I336"/>
-    <mergeCell ref="B337:I337"/>
-    <mergeCell ref="B338:I338"/>
-    <mergeCell ref="B340:I340"/>
-    <mergeCell ref="B341:I341"/>
-    <mergeCell ref="B342:I342"/>
-    <mergeCell ref="B343:I343"/>
-    <mergeCell ref="B356:I356"/>
-    <mergeCell ref="B345:I345"/>
-    <mergeCell ref="B346:I346"/>
-    <mergeCell ref="B347:I347"/>
-    <mergeCell ref="B348:I348"/>
-    <mergeCell ref="B349:I349"/>
-    <mergeCell ref="B350:I350"/>
-    <mergeCell ref="B351:I351"/>
-    <mergeCell ref="B352:I352"/>
-    <mergeCell ref="B353:I353"/>
-    <mergeCell ref="B354:I354"/>
-    <mergeCell ref="B355:I355"/>
-    <mergeCell ref="M56:T59"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="M192:T192"/>
-    <mergeCell ref="M134:T134"/>
-    <mergeCell ref="M181:T181"/>
-    <mergeCell ref="M185:T185"/>
-    <mergeCell ref="M189:T189"/>
-    <mergeCell ref="M191:T191"/>
-    <mergeCell ref="Q54:X54"/>
-    <mergeCell ref="B91:I93"/>
-    <mergeCell ref="B66:I66"/>
-    <mergeCell ref="B86:I87"/>
-    <mergeCell ref="B63:I63"/>
-    <mergeCell ref="B65:I65"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A53:I54"/>
-    <mergeCell ref="D122:I122"/>
-    <mergeCell ref="D123:I123"/>
-    <mergeCell ref="D124:I124"/>
-    <mergeCell ref="B125:C129"/>
-    <mergeCell ref="D125:I125"/>
-    <mergeCell ref="D126:I126"/>
-    <mergeCell ref="D127:I127"/>
-    <mergeCell ref="D128:I128"/>
+  <mergeCells count="115">
     <mergeCell ref="H272:H273"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="A56:I59"/>
@@ -8513,6 +8407,97 @@
     <mergeCell ref="B120:C124"/>
     <mergeCell ref="D120:I120"/>
     <mergeCell ref="D121:I121"/>
+    <mergeCell ref="M56:T59"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="M192:T192"/>
+    <mergeCell ref="M134:T134"/>
+    <mergeCell ref="M181:T181"/>
+    <mergeCell ref="M185:T185"/>
+    <mergeCell ref="M189:T189"/>
+    <mergeCell ref="M191:T191"/>
+    <mergeCell ref="Q54:X54"/>
+    <mergeCell ref="B91:I93"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="B86:I87"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A53:I54"/>
+    <mergeCell ref="D122:I122"/>
+    <mergeCell ref="D123:I123"/>
+    <mergeCell ref="D124:I124"/>
+    <mergeCell ref="B356:I356"/>
+    <mergeCell ref="B345:I345"/>
+    <mergeCell ref="B346:I346"/>
+    <mergeCell ref="B347:I347"/>
+    <mergeCell ref="B348:I348"/>
+    <mergeCell ref="B349:I349"/>
+    <mergeCell ref="B350:I350"/>
+    <mergeCell ref="B351:I351"/>
+    <mergeCell ref="B352:I352"/>
+    <mergeCell ref="B353:I353"/>
+    <mergeCell ref="B354:I354"/>
+    <mergeCell ref="B355:I355"/>
+    <mergeCell ref="B344:I344"/>
+    <mergeCell ref="B331:I331"/>
+    <mergeCell ref="B332:I332"/>
+    <mergeCell ref="B333:I333"/>
+    <mergeCell ref="B334:I334"/>
+    <mergeCell ref="B335:I335"/>
+    <mergeCell ref="B336:I336"/>
+    <mergeCell ref="B337:I337"/>
+    <mergeCell ref="B338:I338"/>
+    <mergeCell ref="B340:I340"/>
+    <mergeCell ref="B341:I341"/>
+    <mergeCell ref="B342:I342"/>
+    <mergeCell ref="B343:I343"/>
+    <mergeCell ref="F309:G309"/>
+    <mergeCell ref="B282:I283"/>
+    <mergeCell ref="B330:I330"/>
+    <mergeCell ref="B317:I317"/>
+    <mergeCell ref="B318:I318"/>
+    <mergeCell ref="B319:I319"/>
+    <mergeCell ref="B320:I320"/>
+    <mergeCell ref="B326:I326"/>
+    <mergeCell ref="B321:I321"/>
+    <mergeCell ref="B322:I322"/>
+    <mergeCell ref="B323:I323"/>
+    <mergeCell ref="B324:I324"/>
+    <mergeCell ref="B325:I325"/>
+    <mergeCell ref="B327:I327"/>
+    <mergeCell ref="B328:I328"/>
+    <mergeCell ref="B329:I329"/>
+    <mergeCell ref="B312:I312"/>
+    <mergeCell ref="B313:I313"/>
+    <mergeCell ref="B314:I314"/>
+    <mergeCell ref="B315:I315"/>
+    <mergeCell ref="B316:I316"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="B257:I257"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B225:I228"/>
+    <mergeCell ref="A61:I62"/>
+    <mergeCell ref="A68:I69"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="B277:G277"/>
+    <mergeCell ref="B278:G278"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B272:C273"/>
+    <mergeCell ref="D272:D273"/>
+    <mergeCell ref="E272:E273"/>
+    <mergeCell ref="F272:F273"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="G272:G273"/>
   </mergeCells>
   <conditionalFormatting sqref="B62">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -8593,21 +8578,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -8623,24 +8608,24 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
+      <c r="H6" s="197"/>
+      <c r="I6" s="197"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" s="23">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8663,46 +8648,46 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
+      <c r="C15" s="199"/>
+      <c r="D15" s="199"/>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="170" t="s">
+      <c r="F15" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="199"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="F16" s="174" t="s">
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
+      <c r="F16" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
+      <c r="G16" s="204"/>
+      <c r="H16" s="204"/>
+      <c r="I16" s="204"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="170" t="s">
+      <c r="A18" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="199"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -8716,43 +8701,43 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="173"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
+      <c r="B20" s="202"/>
+      <c r="C20" s="202"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="202"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="202"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="202"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="172" t="s">
+      <c r="A21" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="172"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
+      <c r="B21" s="201"/>
+      <c r="C21" s="201"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="201"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="171" t="s">
+      <c r="A22" s="200" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="171"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="200"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -8771,17 +8756,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="169" t="s">
+      <c r="A25" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="198"/>
+      <c r="D25" s="198"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="198"/>
+      <c r="G25" s="198"/>
+      <c r="H25" s="198"/>
+      <c r="I25" s="198"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -8792,257 +8777,257 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="166" t="s">
+      <c r="B28" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166" t="s">
+      <c r="C28" s="159"/>
+      <c r="D28" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="166"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="166"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="176" t="s">
+      <c r="B30" s="156" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="176"/>
-      <c r="D30" s="167" t="s">
+      <c r="C30" s="156"/>
+      <c r="D30" s="195" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="176"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="196"/>
+      <c r="F31" s="196"/>
+      <c r="G31" s="196"/>
+      <c r="H31" s="196"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="176"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="168"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="196"/>
+      <c r="G32" s="196"/>
+      <c r="H32" s="196"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="176" t="s">
+      <c r="B33" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="176"/>
-      <c r="D33" s="167" t="s">
+      <c r="C33" s="156"/>
+      <c r="D33" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
+      <c r="E33" s="196"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="196"/>
+      <c r="H33" s="196"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="168"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="196"/>
+      <c r="E34" s="196"/>
+      <c r="F34" s="196"/>
+      <c r="G34" s="196"/>
+      <c r="H34" s="196"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="176"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="168"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="196"/>
+      <c r="E35" s="196"/>
+      <c r="F35" s="196"/>
+      <c r="G35" s="196"/>
+      <c r="H35" s="196"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="176" t="s">
+      <c r="B36" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="176"/>
-      <c r="D36" s="167" t="s">
+      <c r="C36" s="156"/>
+      <c r="D36" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="168"/>
+      <c r="E36" s="196"/>
+      <c r="F36" s="196"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="168"/>
-      <c r="F37" s="168"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="168"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="196"/>
+      <c r="E37" s="196"/>
+      <c r="F37" s="196"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="196"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="176"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="168"/>
-      <c r="E38" s="168"/>
-      <c r="F38" s="168"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="168"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="196"/>
+      <c r="F38" s="196"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="176" t="s">
+      <c r="B39" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="176"/>
-      <c r="D39" s="167" t="s">
+      <c r="C39" s="156"/>
+      <c r="D39" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
+      <c r="H39" s="196"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="176"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="168"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="168"/>
-      <c r="H40" s="168"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="196"/>
+      <c r="E40" s="196"/>
+      <c r="F40" s="196"/>
+      <c r="G40" s="196"/>
+      <c r="H40" s="196"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="178" t="s">
+      <c r="A44" s="158" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="178"/>
-      <c r="C44" s="178"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="178"/>
+      <c r="B44" s="158"/>
+      <c r="C44" s="158"/>
+      <c r="D44" s="158"/>
+      <c r="E44" s="158"/>
+      <c r="F44" s="158"/>
+      <c r="G44" s="158"/>
+      <c r="H44" s="158"/>
+      <c r="I44" s="158"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="178"/>
-      <c r="B45" s="178"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="178"/>
+      <c r="A45" s="158"/>
+      <c r="B45" s="158"/>
+      <c r="C45" s="158"/>
+      <c r="D45" s="158"/>
+      <c r="E45" s="158"/>
+      <c r="F45" s="158"/>
+      <c r="G45" s="158"/>
+      <c r="H45" s="158"/>
+      <c r="I45" s="158"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="179" t="s">
+      <c r="B47" s="160" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="180"/>
-      <c r="D47" s="179" t="s">
+      <c r="C47" s="161"/>
+      <c r="D47" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="183"/>
-      <c r="F47" s="183"/>
-      <c r="G47" s="183"/>
-      <c r="H47" s="184"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="165"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="181"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="185"/>
-      <c r="E48" s="186"/>
-      <c r="F48" s="186"/>
-      <c r="G48" s="186"/>
-      <c r="H48" s="187"/>
+      <c r="B48" s="162"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="166"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167"/>
+      <c r="H48" s="168"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="193" t="s">
+      <c r="B49" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="194"/>
-      <c r="D49" s="197" t="s">
+      <c r="C49" s="175"/>
+      <c r="D49" s="178" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="198"/>
-      <c r="F49" s="198"/>
-      <c r="G49" s="198"/>
-      <c r="H49" s="199"/>
+      <c r="E49" s="179"/>
+      <c r="F49" s="179"/>
+      <c r="G49" s="179"/>
+      <c r="H49" s="180"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="195"/>
-      <c r="C50" s="196"/>
-      <c r="D50" s="200"/>
-      <c r="E50" s="201"/>
-      <c r="F50" s="201"/>
-      <c r="G50" s="201"/>
-      <c r="H50" s="202"/>
+      <c r="B50" s="176"/>
+      <c r="C50" s="177"/>
+      <c r="D50" s="181"/>
+      <c r="E50" s="182"/>
+      <c r="F50" s="182"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="183"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="193" t="s">
+      <c r="B51" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="194"/>
-      <c r="D51" s="203" t="s">
+      <c r="C51" s="175"/>
+      <c r="D51" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="204"/>
-      <c r="F51" s="204"/>
-      <c r="G51" s="204"/>
-      <c r="H51" s="205"/>
+      <c r="E51" s="185"/>
+      <c r="F51" s="185"/>
+      <c r="G51" s="185"/>
+      <c r="H51" s="186"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="212"/>
-      <c r="C52" s="213"/>
-      <c r="D52" s="206"/>
-      <c r="E52" s="207"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="207"/>
-      <c r="H52" s="208"/>
+      <c r="B52" s="193"/>
+      <c r="C52" s="194"/>
+      <c r="D52" s="187"/>
+      <c r="E52" s="188"/>
+      <c r="F52" s="188"/>
+      <c r="G52" s="188"/>
+      <c r="H52" s="189"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="195"/>
-      <c r="C53" s="196"/>
-      <c r="D53" s="209"/>
-      <c r="E53" s="210"/>
-      <c r="F53" s="210"/>
-      <c r="G53" s="210"/>
-      <c r="H53" s="211"/>
+      <c r="B53" s="176"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
+      <c r="G53" s="191"/>
+      <c r="H53" s="192"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="191" t="s">
+      <c r="B54" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="192"/>
-      <c r="D54" s="188" t="s">
+      <c r="C54" s="173"/>
+      <c r="D54" s="169" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="189"/>
-      <c r="F54" s="189"/>
-      <c r="G54" s="189"/>
-      <c r="H54" s="190"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="171"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
@@ -9080,90 +9065,110 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="166" t="s">
+      <c r="B61" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="166"/>
-      <c r="D61" s="166"/>
-      <c r="E61" s="166"/>
-      <c r="F61" s="166" t="s">
+      <c r="C61" s="159"/>
+      <c r="D61" s="159"/>
+      <c r="E61" s="159"/>
+      <c r="F61" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="166"/>
-      <c r="H61" s="166"/>
+      <c r="G61" s="159"/>
+      <c r="H61" s="159"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="166"/>
-      <c r="C62" s="166"/>
-      <c r="D62" s="166"/>
-      <c r="E62" s="166"/>
-      <c r="F62" s="166"/>
-      <c r="G62" s="166"/>
-      <c r="H62" s="166"/>
+      <c r="B62" s="159"/>
+      <c r="C62" s="159"/>
+      <c r="D62" s="159"/>
+      <c r="E62" s="159"/>
+      <c r="F62" s="159"/>
+      <c r="G62" s="159"/>
+      <c r="H62" s="159"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="176" t="s">
+      <c r="B63" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="176"/>
-      <c r="D63" s="176"/>
-      <c r="E63" s="176"/>
-      <c r="F63" s="176" t="s">
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="176"/>
-      <c r="H63" s="176"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="156"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="176"/>
-      <c r="C64" s="176"/>
-      <c r="D64" s="176"/>
-      <c r="E64" s="176"/>
-      <c r="F64" s="176"/>
-      <c r="G64" s="176"/>
-      <c r="H64" s="176"/>
+      <c r="B64" s="156"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="156"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="176" t="s">
+      <c r="B65" s="156" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="176"/>
-      <c r="D65" s="176"/>
-      <c r="E65" s="176"/>
-      <c r="F65" s="176" t="s">
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="176"/>
-      <c r="H65" s="176"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="156"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="176"/>
-      <c r="C66" s="176"/>
-      <c r="D66" s="176"/>
-      <c r="E66" s="176"/>
-      <c r="F66" s="176"/>
-      <c r="G66" s="176"/>
-      <c r="H66" s="176"/>
+      <c r="B66" s="156"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="156"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="177" t="s">
+      <c r="A73" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="177"/>
-      <c r="C73" s="177"/>
+      <c r="B73" s="157"/>
+      <c r="C73" s="157"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="178"/>
-      <c r="B74" s="178"/>
-      <c r="C74" s="178"/>
+      <c r="A74" s="158"/>
+      <c r="B74" s="158"/>
+      <c r="C74" s="158"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="178"/>
-      <c r="B75" s="178"/>
-      <c r="C75" s="178"/>
+      <c r="A75" s="158"/>
+      <c r="B75" s="158"/>
+      <c r="C75" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H3:I8"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="D30:H32"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="D33:H35"/>
+    <mergeCell ref="D36:H38"/>
+    <mergeCell ref="D39:H40"/>
+    <mergeCell ref="B30:C32"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="B36:C38"/>
+    <mergeCell ref="B39:C40"/>
     <mergeCell ref="B65:E66"/>
     <mergeCell ref="F63:H64"/>
     <mergeCell ref="F65:H66"/>
@@ -9180,26 +9185,6 @@
     <mergeCell ref="D49:H50"/>
     <mergeCell ref="D51:H53"/>
     <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D33:H35"/>
-    <mergeCell ref="D36:H38"/>
-    <mergeCell ref="D39:H40"/>
-    <mergeCell ref="B30:C32"/>
-    <mergeCell ref="B33:C35"/>
-    <mergeCell ref="B36:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="H3:I8"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="D30:H32"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9318,39 +9303,39 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="221" t="s">
+      <c r="D13" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="221"/>
+      <c r="E13" s="205"/>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="237" t="s">
+      <c r="G13" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="237"/>
-      <c r="I13" s="237"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="206"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="238" t="s">
+      <c r="D14" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="238"/>
-      <c r="G14" s="239" t="s">
+      <c r="E14" s="207"/>
+      <c r="G14" s="208" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="239"/>
-      <c r="I14" s="239"/>
+      <c r="H14" s="208"/>
+      <c r="I14" s="208"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="237" t="s">
+      <c r="D15" s="206" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="237"/>
-      <c r="F15" s="237"/>
-      <c r="G15" s="237"/>
-      <c r="H15" s="237"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -9360,265 +9345,265 @@
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="202"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="209" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="240"/>
-      <c r="D18" s="240"/>
-      <c r="E18" s="240"/>
-      <c r="F18" s="240"/>
-      <c r="G18" s="240"/>
-      <c r="H18" s="240"/>
-      <c r="I18" s="240"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
       <c r="J18" s="41"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="241"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="241"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="241"/>
-      <c r="I19" s="241"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
       <c r="J19" s="35"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="241" t="s">
+      <c r="B20" s="210" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="241"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="241"/>
-      <c r="I20" s="241"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
       <c r="J20" s="35"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="124" t="s">
+      <c r="B23" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="234" t="s">
+      <c r="D26" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="235"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="235"/>
-      <c r="H26" s="235"/>
-      <c r="I26" s="236"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="212"/>
+      <c r="G26" s="212"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="213"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="223" t="s">
+      <c r="C27" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="225" t="s">
+      <c r="D27" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="226"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="226"/>
-      <c r="H27" s="226"/>
-      <c r="I27" s="227"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="218"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="219"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="231"/>
-      <c r="D28" s="232"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
-      <c r="I28" s="233"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="220"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="221"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="224"/>
-      <c r="D29" s="228"/>
-      <c r="E29" s="229"/>
-      <c r="F29" s="229"/>
-      <c r="G29" s="229"/>
-      <c r="H29" s="229"/>
-      <c r="I29" s="230"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="222"/>
+      <c r="E29" s="223"/>
+      <c r="F29" s="223"/>
+      <c r="G29" s="223"/>
+      <c r="H29" s="223"/>
+      <c r="I29" s="224"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="223" t="s">
+      <c r="C30" s="214" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="225" t="s">
+      <c r="D30" s="217" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="226"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="226"/>
-      <c r="I30" s="227"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="219"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="231"/>
-      <c r="D31" s="232"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="233"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="220"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="221"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="224"/>
-      <c r="D32" s="228"/>
-      <c r="E32" s="229"/>
-      <c r="F32" s="229"/>
-      <c r="G32" s="229"/>
-      <c r="H32" s="229"/>
-      <c r="I32" s="230"/>
+      <c r="C32" s="216"/>
+      <c r="D32" s="222"/>
+      <c r="E32" s="223"/>
+      <c r="F32" s="223"/>
+      <c r="G32" s="223"/>
+      <c r="H32" s="223"/>
+      <c r="I32" s="224"/>
     </row>
     <row r="33" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="223" t="s">
+      <c r="C33" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="225" t="s">
+      <c r="D33" s="217" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="226"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="226"/>
-      <c r="H33" s="226"/>
-      <c r="I33" s="227"/>
+      <c r="E33" s="218"/>
+      <c r="F33" s="218"/>
+      <c r="G33" s="218"/>
+      <c r="H33" s="218"/>
+      <c r="I33" s="219"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="231"/>
-      <c r="D34" s="232"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="233"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="220"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="221"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="224"/>
-      <c r="D35" s="228"/>
-      <c r="E35" s="229"/>
-      <c r="F35" s="229"/>
-      <c r="G35" s="229"/>
-      <c r="H35" s="229"/>
-      <c r="I35" s="230"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="222"/>
+      <c r="E35" s="223"/>
+      <c r="F35" s="223"/>
+      <c r="G35" s="223"/>
+      <c r="H35" s="223"/>
+      <c r="I35" s="224"/>
     </row>
     <row r="36" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="223" t="s">
+      <c r="C36" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="225" t="s">
+      <c r="D36" s="217" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="226"/>
-      <c r="F36" s="226"/>
-      <c r="G36" s="226"/>
-      <c r="H36" s="226"/>
-      <c r="I36" s="227"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="219"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="231"/>
-      <c r="D37" s="232"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="233"/>
+      <c r="C37" s="215"/>
+      <c r="D37" s="220"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="134"/>
+      <c r="I37" s="221"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="224"/>
-      <c r="D38" s="228"/>
-      <c r="E38" s="229"/>
-      <c r="F38" s="229"/>
-      <c r="G38" s="229"/>
-      <c r="H38" s="229"/>
-      <c r="I38" s="230"/>
+      <c r="C38" s="216"/>
+      <c r="D38" s="222"/>
+      <c r="E38" s="223"/>
+      <c r="F38" s="223"/>
+      <c r="G38" s="223"/>
+      <c r="H38" s="223"/>
+      <c r="I38" s="224"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="141" t="s">
+      <c r="L39" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="141"/>
-      <c r="N39" s="141"/>
-      <c r="O39" s="141"/>
-      <c r="P39" s="141"/>
-      <c r="Q39" s="141"/>
-      <c r="R39" s="141"/>
-      <c r="S39" s="141"/>
+      <c r="M39" s="143"/>
+      <c r="N39" s="143"/>
+      <c r="O39" s="143"/>
+      <c r="P39" s="143"/>
+      <c r="Q39" s="143"/>
+      <c r="R39" s="143"/>
+      <c r="S39" s="143"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="141" t="s">
+      <c r="L42" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="141"/>
-      <c r="N42" s="141"/>
-      <c r="O42" s="141"/>
-      <c r="P42" s="141"/>
-      <c r="Q42" s="141"/>
-      <c r="R42" s="141"/>
-      <c r="S42" s="141"/>
+      <c r="M42" s="143"/>
+      <c r="N42" s="143"/>
+      <c r="O42" s="143"/>
+      <c r="P42" s="143"/>
+      <c r="Q42" s="143"/>
+      <c r="R42" s="143"/>
+      <c r="S42" s="143"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -9659,157 +9644,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="125" t="s">
+      <c r="C56" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="125"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="134"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="234" t="s">
+      <c r="D58" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="235"/>
-      <c r="F58" s="235"/>
-      <c r="G58" s="235"/>
-      <c r="H58" s="235"/>
-      <c r="I58" s="236"/>
+      <c r="E58" s="212"/>
+      <c r="F58" s="212"/>
+      <c r="G58" s="212"/>
+      <c r="H58" s="212"/>
+      <c r="I58" s="213"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="223" t="s">
+      <c r="C59" s="214" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="225" t="s">
+      <c r="D59" s="217" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="226"/>
-      <c r="F59" s="226"/>
-      <c r="G59" s="226"/>
-      <c r="H59" s="226"/>
-      <c r="I59" s="227"/>
+      <c r="E59" s="218"/>
+      <c r="F59" s="218"/>
+      <c r="G59" s="218"/>
+      <c r="H59" s="218"/>
+      <c r="I59" s="219"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="224"/>
-      <c r="D60" s="228"/>
-      <c r="E60" s="229"/>
-      <c r="F60" s="229"/>
-      <c r="G60" s="229"/>
-      <c r="H60" s="229"/>
-      <c r="I60" s="230"/>
+      <c r="C60" s="216"/>
+      <c r="D60" s="222"/>
+      <c r="E60" s="223"/>
+      <c r="F60" s="223"/>
+      <c r="G60" s="223"/>
+      <c r="H60" s="223"/>
+      <c r="I60" s="224"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="223" t="s">
+      <c r="C61" s="214" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="225" t="s">
+      <c r="D61" s="217" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="226"/>
-      <c r="F61" s="226"/>
-      <c r="G61" s="226"/>
-      <c r="H61" s="226"/>
-      <c r="I61" s="227"/>
+      <c r="E61" s="218"/>
+      <c r="F61" s="218"/>
+      <c r="G61" s="218"/>
+      <c r="H61" s="218"/>
+      <c r="I61" s="219"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="224"/>
-      <c r="D62" s="228"/>
-      <c r="E62" s="229"/>
-      <c r="F62" s="229"/>
-      <c r="G62" s="229"/>
-      <c r="H62" s="229"/>
-      <c r="I62" s="230"/>
+      <c r="C62" s="216"/>
+      <c r="D62" s="222"/>
+      <c r="E62" s="223"/>
+      <c r="F62" s="223"/>
+      <c r="G62" s="223"/>
+      <c r="H62" s="223"/>
+      <c r="I62" s="224"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="223" t="s">
+      <c r="C63" s="214" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="225" t="s">
+      <c r="D63" s="217" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="226"/>
-      <c r="F63" s="226"/>
-      <c r="G63" s="226"/>
-      <c r="H63" s="226"/>
-      <c r="I63" s="227"/>
+      <c r="E63" s="218"/>
+      <c r="F63" s="218"/>
+      <c r="G63" s="218"/>
+      <c r="H63" s="218"/>
+      <c r="I63" s="219"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="224"/>
-      <c r="D64" s="228"/>
-      <c r="E64" s="229"/>
-      <c r="F64" s="229"/>
-      <c r="G64" s="229"/>
-      <c r="H64" s="229"/>
-      <c r="I64" s="230"/>
+      <c r="C64" s="216"/>
+      <c r="D64" s="222"/>
+      <c r="E64" s="223"/>
+      <c r="F64" s="223"/>
+      <c r="G64" s="223"/>
+      <c r="H64" s="223"/>
+      <c r="I64" s="224"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="223" t="s">
+      <c r="C65" s="214" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="225" t="s">
+      <c r="D65" s="217" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="226"/>
-      <c r="F65" s="226"/>
-      <c r="G65" s="226"/>
-      <c r="H65" s="226"/>
-      <c r="I65" s="227"/>
+      <c r="E65" s="218"/>
+      <c r="F65" s="218"/>
+      <c r="G65" s="218"/>
+      <c r="H65" s="218"/>
+      <c r="I65" s="219"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="231"/>
-      <c r="D66" s="232"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="233"/>
+      <c r="C66" s="215"/>
+      <c r="D66" s="220"/>
+      <c r="E66" s="134"/>
+      <c r="F66" s="134"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="221"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="224"/>
-      <c r="D67" s="228"/>
-      <c r="E67" s="229"/>
-      <c r="F67" s="229"/>
-      <c r="G67" s="229"/>
-      <c r="H67" s="229"/>
-      <c r="I67" s="230"/>
+      <c r="C67" s="216"/>
+      <c r="D67" s="222"/>
+      <c r="E67" s="223"/>
+      <c r="F67" s="223"/>
+      <c r="G67" s="223"/>
+      <c r="H67" s="223"/>
+      <c r="I67" s="224"/>
     </row>
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="223" t="s">
+      <c r="C68" s="214" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="225" t="s">
+      <c r="D68" s="217" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="226"/>
-      <c r="F68" s="226"/>
-      <c r="G68" s="226"/>
-      <c r="H68" s="226"/>
-      <c r="I68" s="227"/>
+      <c r="E68" s="218"/>
+      <c r="F68" s="218"/>
+      <c r="G68" s="218"/>
+      <c r="H68" s="218"/>
+      <c r="I68" s="219"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="231"/>
-      <c r="D69" s="232"/>
-      <c r="E69" s="125"/>
-      <c r="F69" s="125"/>
-      <c r="G69" s="125"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="233"/>
+      <c r="C69" s="215"/>
+      <c r="D69" s="220"/>
+      <c r="E69" s="134"/>
+      <c r="F69" s="134"/>
+      <c r="G69" s="134"/>
+      <c r="H69" s="134"/>
+      <c r="I69" s="221"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="224"/>
-      <c r="D70" s="228"/>
-      <c r="E70" s="229"/>
-      <c r="F70" s="229"/>
-      <c r="G70" s="229"/>
-      <c r="H70" s="229"/>
-      <c r="I70" s="230"/>
+      <c r="C70" s="216"/>
+      <c r="D70" s="222"/>
+      <c r="E70" s="223"/>
+      <c r="F70" s="223"/>
+      <c r="G70" s="223"/>
+      <c r="H70" s="223"/>
+      <c r="I70" s="224"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -9820,53 +9805,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="215" t="s">
+      <c r="D74" s="226" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="216"/>
-      <c r="F74" s="216"/>
-      <c r="G74" s="216"/>
-      <c r="H74" s="216"/>
-      <c r="I74" s="217"/>
+      <c r="E74" s="227"/>
+      <c r="F74" s="227"/>
+      <c r="G74" s="227"/>
+      <c r="H74" s="227"/>
+      <c r="I74" s="228"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="218" t="s">
+      <c r="D75" s="229" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="219"/>
-      <c r="F75" s="219"/>
-      <c r="G75" s="219"/>
-      <c r="H75" s="219"/>
-      <c r="I75" s="220"/>
+      <c r="E75" s="230"/>
+      <c r="F75" s="230"/>
+      <c r="G75" s="230"/>
+      <c r="H75" s="230"/>
+      <c r="I75" s="231"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="218" t="s">
+      <c r="D76" s="229" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="219"/>
-      <c r="F76" s="219"/>
-      <c r="G76" s="219"/>
-      <c r="H76" s="219"/>
-      <c r="I76" s="220"/>
+      <c r="E76" s="230"/>
+      <c r="F76" s="230"/>
+      <c r="G76" s="230"/>
+      <c r="H76" s="230"/>
+      <c r="I76" s="231"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="218" t="s">
+      <c r="D77" s="229" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="219"/>
-      <c r="F77" s="219"/>
-      <c r="G77" s="219"/>
-      <c r="H77" s="219"/>
-      <c r="I77" s="220"/>
+      <c r="E77" s="230"/>
+      <c r="F77" s="230"/>
+      <c r="G77" s="230"/>
+      <c r="H77" s="230"/>
+      <c r="I77" s="231"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -9885,36 +9870,45 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="221" t="s">
+      <c r="C91" s="205" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="221"/>
+      <c r="D91" s="205"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="222">
+      <c r="G91" s="232">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
-      </c>
-      <c r="H91" s="222"/>
-      <c r="I91" s="222"/>
+        <v>45306</v>
+      </c>
+      <c r="H91" s="232"/>
+      <c r="I91" s="232"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="214"/>
-      <c r="H92" s="214"/>
+      <c r="G92" s="225"/>
+      <c r="H92" s="225"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:I64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:I67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:I70"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:I60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:I62"/>
     <mergeCell ref="L42:S42"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -9928,25 +9922,16 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:I38"/>
     <mergeCell ref="L39:S39"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:I60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:I62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:I64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:I67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:I70"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{027AC6F8-6212-42AF-BEE9-C1D52F5D423A}"/>
@@ -10069,40 +10054,40 @@
       <c r="B13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="221" t="s">
+      <c r="C13" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="221"/>
+      <c r="D13" s="205"/>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="221" t="s">
+      <c r="F13" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="221"/>
-      <c r="H13" s="221"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="205"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="238" t="s">
+      <c r="C14" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="238"/>
-      <c r="F14" s="238" t="s">
+      <c r="D14" s="207"/>
+      <c r="F14" s="207" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="238"/>
-      <c r="H14" s="238"/>
+      <c r="G14" s="207"/>
+      <c r="H14" s="207"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="221" t="s">
+      <c r="C15" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="221"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="205"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="205"/>
+      <c r="H15" s="205"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="32" t="s">
@@ -10111,232 +10096,232 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="202"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="202"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="202"/>
+      <c r="J17" s="202"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="209" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="240"/>
-      <c r="D18" s="240"/>
-      <c r="E18" s="240"/>
-      <c r="F18" s="240"/>
-      <c r="G18" s="240"/>
-      <c r="H18" s="240"/>
-      <c r="I18" s="240"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="241"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="241"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="241"/>
-      <c r="I19" s="241"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="210"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="241" t="s">
+      <c r="B20" s="210" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="241"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="241"/>
-      <c r="I20" s="241"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="124" t="s">
+      <c r="B22" s="130" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="124" t="s">
+      <c r="B23" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="246" t="s">
+      <c r="D26" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="246"/>
-      <c r="F26" s="246"/>
-      <c r="G26" s="246"/>
-      <c r="H26" s="246"/>
-      <c r="I26" s="246"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="233"/>
+      <c r="G26" s="233"/>
+      <c r="H26" s="233"/>
+      <c r="I26" s="233"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="243" t="s">
+      <c r="C27" s="234" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="244" t="s">
+      <c r="D27" s="235" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="244"/>
-      <c r="F27" s="244"/>
-      <c r="G27" s="244"/>
-      <c r="H27" s="244"/>
-      <c r="I27" s="244"/>
+      <c r="E27" s="235"/>
+      <c r="F27" s="235"/>
+      <c r="G27" s="235"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="243"/>
-      <c r="D28" s="244"/>
-      <c r="E28" s="244"/>
-      <c r="F28" s="244"/>
-      <c r="G28" s="244"/>
-      <c r="H28" s="244"/>
-      <c r="I28" s="244"/>
+      <c r="C28" s="234"/>
+      <c r="D28" s="235"/>
+      <c r="E28" s="235"/>
+      <c r="F28" s="235"/>
+      <c r="G28" s="235"/>
+      <c r="H28" s="235"/>
+      <c r="I28" s="235"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="243"/>
-      <c r="D29" s="244"/>
-      <c r="E29" s="244"/>
-      <c r="F29" s="244"/>
-      <c r="G29" s="244"/>
-      <c r="H29" s="244"/>
-      <c r="I29" s="244"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="235"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="235"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="243" t="s">
+      <c r="C30" s="234" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="244" t="s">
+      <c r="D30" s="235" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="244"/>
-      <c r="F30" s="244"/>
-      <c r="G30" s="244"/>
-      <c r="H30" s="244"/>
-      <c r="I30" s="244"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="235"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="235"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="243"/>
-      <c r="D31" s="244"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="244"/>
-      <c r="H31" s="244"/>
-      <c r="I31" s="244"/>
+      <c r="C31" s="234"/>
+      <c r="D31" s="235"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="235"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="243"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="244"/>
-      <c r="I32" s="244"/>
+      <c r="C32" s="234"/>
+      <c r="D32" s="235"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="235"/>
     </row>
     <row r="33" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="243" t="s">
+      <c r="C33" s="234" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="244" t="s">
+      <c r="D33" s="235" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="244"/>
-      <c r="F33" s="244"/>
-      <c r="G33" s="244"/>
-      <c r="H33" s="244"/>
-      <c r="I33" s="244"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="235"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="243"/>
-      <c r="D34" s="244"/>
-      <c r="E34" s="244"/>
-      <c r="F34" s="244"/>
-      <c r="G34" s="244"/>
-      <c r="H34" s="244"/>
-      <c r="I34" s="244"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="235"/>
+      <c r="E34" s="235"/>
+      <c r="F34" s="235"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="235"/>
+      <c r="I34" s="235"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="243"/>
-      <c r="D35" s="244"/>
-      <c r="E35" s="244"/>
-      <c r="F35" s="244"/>
-      <c r="G35" s="244"/>
-      <c r="H35" s="244"/>
-      <c r="I35" s="244"/>
+      <c r="C35" s="234"/>
+      <c r="D35" s="235"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="235"/>
+      <c r="G35" s="235"/>
+      <c r="H35" s="235"/>
+      <c r="I35" s="235"/>
     </row>
     <row r="36" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="243" t="s">
+      <c r="C36" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="244" t="s">
+      <c r="D36" s="235" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="244"/>
-      <c r="F36" s="244"/>
-      <c r="G36" s="244"/>
-      <c r="H36" s="244"/>
-      <c r="I36" s="244"/>
+      <c r="E36" s="235"/>
+      <c r="F36" s="235"/>
+      <c r="G36" s="235"/>
+      <c r="H36" s="235"/>
+      <c r="I36" s="235"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="243"/>
-      <c r="D37" s="244"/>
-      <c r="E37" s="244"/>
-      <c r="F37" s="244"/>
-      <c r="G37" s="244"/>
-      <c r="H37" s="244"/>
-      <c r="I37" s="244"/>
+      <c r="C37" s="234"/>
+      <c r="D37" s="235"/>
+      <c r="E37" s="235"/>
+      <c r="F37" s="235"/>
+      <c r="G37" s="235"/>
+      <c r="H37" s="235"/>
+      <c r="I37" s="235"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="243"/>
-      <c r="D38" s="244"/>
-      <c r="E38" s="244"/>
-      <c r="F38" s="244"/>
-      <c r="G38" s="244"/>
-      <c r="H38" s="244"/>
-      <c r="I38" s="244"/>
+      <c r="C38" s="234"/>
+      <c r="D38" s="235"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="235"/>
+      <c r="G38" s="235"/>
+      <c r="H38" s="235"/>
+      <c r="I38" s="235"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -10377,157 +10362,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="125" t="s">
+      <c r="C56" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="125"/>
+      <c r="D56" s="134"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="134"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="246" t="s">
+      <c r="D58" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="246"/>
-      <c r="F58" s="246"/>
-      <c r="G58" s="246"/>
-      <c r="H58" s="246"/>
-      <c r="I58" s="246"/>
+      <c r="E58" s="233"/>
+      <c r="F58" s="233"/>
+      <c r="G58" s="233"/>
+      <c r="H58" s="233"/>
+      <c r="I58" s="233"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="243" t="s">
+      <c r="C59" s="234" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="244" t="s">
+      <c r="D59" s="235" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="244"/>
-      <c r="F59" s="244"/>
-      <c r="G59" s="244"/>
-      <c r="H59" s="244"/>
-      <c r="I59" s="244"/>
+      <c r="E59" s="235"/>
+      <c r="F59" s="235"/>
+      <c r="G59" s="235"/>
+      <c r="H59" s="235"/>
+      <c r="I59" s="235"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="243"/>
-      <c r="D60" s="244"/>
-      <c r="E60" s="244"/>
-      <c r="F60" s="244"/>
-      <c r="G60" s="244"/>
-      <c r="H60" s="244"/>
-      <c r="I60" s="244"/>
+      <c r="C60" s="234"/>
+      <c r="D60" s="235"/>
+      <c r="E60" s="235"/>
+      <c r="F60" s="235"/>
+      <c r="G60" s="235"/>
+      <c r="H60" s="235"/>
+      <c r="I60" s="235"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="243" t="s">
+      <c r="C61" s="234" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="244" t="s">
+      <c r="D61" s="235" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="244"/>
-      <c r="F61" s="244"/>
-      <c r="G61" s="244"/>
-      <c r="H61" s="244"/>
-      <c r="I61" s="244"/>
+      <c r="E61" s="235"/>
+      <c r="F61" s="235"/>
+      <c r="G61" s="235"/>
+      <c r="H61" s="235"/>
+      <c r="I61" s="235"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="243"/>
-      <c r="D62" s="244"/>
-      <c r="E62" s="244"/>
-      <c r="F62" s="244"/>
-      <c r="G62" s="244"/>
-      <c r="H62" s="244"/>
-      <c r="I62" s="244"/>
+      <c r="C62" s="234"/>
+      <c r="D62" s="235"/>
+      <c r="E62" s="235"/>
+      <c r="F62" s="235"/>
+      <c r="G62" s="235"/>
+      <c r="H62" s="235"/>
+      <c r="I62" s="235"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="243" t="s">
+      <c r="C63" s="234" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="244" t="s">
+      <c r="D63" s="235" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="244"/>
-      <c r="F63" s="244"/>
-      <c r="G63" s="244"/>
-      <c r="H63" s="244"/>
-      <c r="I63" s="244"/>
+      <c r="E63" s="235"/>
+      <c r="F63" s="235"/>
+      <c r="G63" s="235"/>
+      <c r="H63" s="235"/>
+      <c r="I63" s="235"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="243"/>
-      <c r="D64" s="244"/>
-      <c r="E64" s="244"/>
-      <c r="F64" s="244"/>
-      <c r="G64" s="244"/>
-      <c r="H64" s="244"/>
-      <c r="I64" s="244"/>
+      <c r="C64" s="234"/>
+      <c r="D64" s="235"/>
+      <c r="E64" s="235"/>
+      <c r="F64" s="235"/>
+      <c r="G64" s="235"/>
+      <c r="H64" s="235"/>
+      <c r="I64" s="235"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="243" t="s">
+      <c r="C65" s="234" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="244" t="s">
+      <c r="D65" s="235" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="244"/>
-      <c r="F65" s="244"/>
-      <c r="G65" s="244"/>
-      <c r="H65" s="244"/>
-      <c r="I65" s="244"/>
+      <c r="E65" s="235"/>
+      <c r="F65" s="235"/>
+      <c r="G65" s="235"/>
+      <c r="H65" s="235"/>
+      <c r="I65" s="235"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="243"/>
-      <c r="D66" s="244"/>
-      <c r="E66" s="244"/>
-      <c r="F66" s="244"/>
-      <c r="G66" s="244"/>
-      <c r="H66" s="244"/>
-      <c r="I66" s="244"/>
+      <c r="C66" s="234"/>
+      <c r="D66" s="235"/>
+      <c r="E66" s="235"/>
+      <c r="F66" s="235"/>
+      <c r="G66" s="235"/>
+      <c r="H66" s="235"/>
+      <c r="I66" s="235"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="243"/>
-      <c r="D67" s="244"/>
-      <c r="E67" s="244"/>
-      <c r="F67" s="244"/>
-      <c r="G67" s="244"/>
-      <c r="H67" s="244"/>
-      <c r="I67" s="244"/>
+      <c r="C67" s="234"/>
+      <c r="D67" s="235"/>
+      <c r="E67" s="235"/>
+      <c r="F67" s="235"/>
+      <c r="G67" s="235"/>
+      <c r="H67" s="235"/>
+      <c r="I67" s="235"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="243" t="s">
+      <c r="C68" s="234" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="244" t="s">
+      <c r="D68" s="235" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="244"/>
-      <c r="F68" s="244"/>
-      <c r="G68" s="244"/>
-      <c r="H68" s="244"/>
-      <c r="I68" s="244"/>
+      <c r="E68" s="235"/>
+      <c r="F68" s="235"/>
+      <c r="G68" s="235"/>
+      <c r="H68" s="235"/>
+      <c r="I68" s="235"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="243"/>
-      <c r="D69" s="244"/>
-      <c r="E69" s="244"/>
-      <c r="F69" s="244"/>
-      <c r="G69" s="244"/>
-      <c r="H69" s="244"/>
-      <c r="I69" s="244"/>
+      <c r="C69" s="234"/>
+      <c r="D69" s="235"/>
+      <c r="E69" s="235"/>
+      <c r="F69" s="235"/>
+      <c r="G69" s="235"/>
+      <c r="H69" s="235"/>
+      <c r="I69" s="235"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="243"/>
-      <c r="D70" s="244"/>
-      <c r="E70" s="244"/>
-      <c r="F70" s="244"/>
-      <c r="G70" s="244"/>
-      <c r="H70" s="244"/>
-      <c r="I70" s="244"/>
+      <c r="C70" s="234"/>
+      <c r="D70" s="235"/>
+      <c r="E70" s="235"/>
+      <c r="F70" s="235"/>
+      <c r="G70" s="235"/>
+      <c r="H70" s="235"/>
+      <c r="I70" s="235"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -10538,53 +10523,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="245" t="s">
+      <c r="D74" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="245"/>
-      <c r="F74" s="245"/>
-      <c r="G74" s="245"/>
-      <c r="H74" s="245"/>
-      <c r="I74" s="245"/>
+      <c r="E74" s="237"/>
+      <c r="F74" s="237"/>
+      <c r="G74" s="237"/>
+      <c r="H74" s="237"/>
+      <c r="I74" s="237"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="242" t="s">
+      <c r="D75" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="242"/>
-      <c r="F75" s="242"/>
-      <c r="G75" s="242"/>
-      <c r="H75" s="242"/>
-      <c r="I75" s="242"/>
+      <c r="E75" s="236"/>
+      <c r="F75" s="236"/>
+      <c r="G75" s="236"/>
+      <c r="H75" s="236"/>
+      <c r="I75" s="236"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="242" t="s">
+      <c r="D76" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="242"/>
-      <c r="F76" s="242"/>
-      <c r="G76" s="242"/>
-      <c r="H76" s="242"/>
-      <c r="I76" s="242"/>
+      <c r="E76" s="236"/>
+      <c r="F76" s="236"/>
+      <c r="G76" s="236"/>
+      <c r="H76" s="236"/>
+      <c r="I76" s="236"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="242" t="s">
+      <c r="D77" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="242"/>
-      <c r="F77" s="242"/>
-      <c r="G77" s="242"/>
-      <c r="H77" s="242"/>
-      <c r="I77" s="242"/>
+      <c r="E77" s="236"/>
+      <c r="F77" s="236"/>
+      <c r="G77" s="236"/>
+      <c r="H77" s="236"/>
+      <c r="I77" s="236"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -10601,36 +10586,43 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="221" t="s">
+      <c r="C91" s="205" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="221"/>
+      <c r="D91" s="205"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="222">
+      <c r="G91" s="232">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
-      </c>
-      <c r="H91" s="222"/>
-      <c r="I91" s="222"/>
+        <v>45306</v>
+      </c>
+      <c r="H91" s="232"/>
+      <c r="I91" s="232"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="152"/>
-      <c r="H92" s="152"/>
+      <c r="G92" s="139"/>
+      <c r="H92" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:I60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:I62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:I64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:I67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:I70"/>
+    <mergeCell ref="D74:I74"/>
     <mergeCell ref="D58:I58"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -10644,23 +10636,16 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:I38"/>
     <mergeCell ref="C56:J56"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:I60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:I62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:I64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:I67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:I70"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{6E9829A0-4BB3-4C8C-A320-546D81175A58}"/>
@@ -10692,7 +10677,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -10729,28 +10714,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="178"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
+      <c r="A16" s="158"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -10777,15 +10762,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -10810,15 +10795,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="124" t="s">
+      <c r="C24" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -10859,16 +10844,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="124" t="s">
+      <c r="B31" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -10958,48 +10943,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="124" t="s">
+      <c r="B45" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="178" t="s">
+      <c r="B46" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="178"/>
-      <c r="D46" s="178"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="178"/>
-      <c r="G46" s="178"/>
-      <c r="H46" s="178"/>
-      <c r="I46" s="178"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="158"/>
+      <c r="H46" s="158"/>
+      <c r="I46" s="158"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="178"/>
-      <c r="C47" s="178"/>
-      <c r="D47" s="178"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="178"/>
-      <c r="I47" s="178"/>
+      <c r="B47" s="158"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="158"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="158"/>
+      <c r="H47" s="158"/>
+      <c r="I47" s="158"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="178"/>
-      <c r="C48" s="178"/>
-      <c r="D48" s="178"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="178"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="178"/>
-      <c r="I48" s="178"/>
+      <c r="B48" s="158"/>
+      <c r="C48" s="158"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="158"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -11012,16 +10997,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="124" t="s">
+      <c r="B59" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="124"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="124"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="124"/>
-      <c r="I59" s="124"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="130"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -11035,16 +11020,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="124" t="s">
+      <c r="B62" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="124"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -11067,221 +11052,234 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="178" t="s">
+      <c r="B68" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="178"/>
-      <c r="D68" s="178"/>
-      <c r="E68" s="178"/>
-      <c r="F68" s="178"/>
-      <c r="G68" s="178"/>
-      <c r="H68" s="178"/>
-      <c r="I68" s="178"/>
+      <c r="C68" s="158"/>
+      <c r="D68" s="158"/>
+      <c r="E68" s="158"/>
+      <c r="F68" s="158"/>
+      <c r="G68" s="158"/>
+      <c r="H68" s="158"/>
+      <c r="I68" s="158"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="178"/>
-      <c r="C69" s="178"/>
-      <c r="D69" s="178"/>
-      <c r="E69" s="178"/>
-      <c r="F69" s="178"/>
-      <c r="G69" s="178"/>
-      <c r="H69" s="178"/>
-      <c r="I69" s="178"/>
+      <c r="B69" s="158"/>
+      <c r="C69" s="158"/>
+      <c r="D69" s="158"/>
+      <c r="E69" s="158"/>
+      <c r="F69" s="158"/>
+      <c r="G69" s="158"/>
+      <c r="H69" s="158"/>
+      <c r="I69" s="158"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="247"/>
-      <c r="C71" s="248"/>
-      <c r="D71" s="251" t="s">
+      <c r="B71" s="245"/>
+      <c r="C71" s="246"/>
+      <c r="D71" s="249" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="252"/>
-      <c r="F71" s="251" t="s">
+      <c r="E71" s="250"/>
+      <c r="F71" s="249" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="252"/>
-      <c r="H71" s="251" t="s">
+      <c r="G71" s="250"/>
+      <c r="H71" s="249" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="252"/>
+      <c r="I71" s="250"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="249"/>
-      <c r="C72" s="250"/>
-      <c r="D72" s="253"/>
-      <c r="E72" s="254"/>
-      <c r="F72" s="253"/>
-      <c r="G72" s="254"/>
-      <c r="H72" s="253"/>
-      <c r="I72" s="254"/>
+      <c r="B72" s="247"/>
+      <c r="C72" s="248"/>
+      <c r="D72" s="251"/>
+      <c r="E72" s="252"/>
+      <c r="F72" s="251"/>
+      <c r="G72" s="252"/>
+      <c r="H72" s="251"/>
+      <c r="I72" s="252"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="258" t="s">
+      <c r="B73" s="241" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="259"/>
-      <c r="D73" s="255"/>
-      <c r="E73" s="256"/>
-      <c r="F73" s="257"/>
-      <c r="G73" s="256"/>
-      <c r="H73" s="257"/>
-      <c r="I73" s="256"/>
+      <c r="C73" s="242"/>
+      <c r="D73" s="238"/>
+      <c r="E73" s="239"/>
+      <c r="F73" s="240"/>
+      <c r="G73" s="239"/>
+      <c r="H73" s="240"/>
+      <c r="I73" s="239"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="178" t="s">
+      <c r="B75" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="178"/>
-      <c r="D75" s="178"/>
-      <c r="E75" s="178"/>
-      <c r="F75" s="178"/>
-      <c r="G75" s="178"/>
-      <c r="H75" s="178"/>
-      <c r="I75" s="178"/>
+      <c r="C75" s="158"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="158"/>
+      <c r="F75" s="158"/>
+      <c r="G75" s="158"/>
+      <c r="H75" s="158"/>
+      <c r="I75" s="158"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="178"/>
-      <c r="C76" s="178"/>
-      <c r="D76" s="178"/>
-      <c r="E76" s="178"/>
-      <c r="F76" s="178"/>
-      <c r="G76" s="178"/>
-      <c r="H76" s="178"/>
-      <c r="I76" s="178"/>
+      <c r="B76" s="158"/>
+      <c r="C76" s="158"/>
+      <c r="D76" s="158"/>
+      <c r="E76" s="158"/>
+      <c r="F76" s="158"/>
+      <c r="G76" s="158"/>
+      <c r="H76" s="158"/>
+      <c r="I76" s="158"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="260" t="s">
+      <c r="E78" s="243" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="261"/>
-      <c r="G78" s="261"/>
-      <c r="H78" s="261"/>
+      <c r="F78" s="244"/>
+      <c r="G78" s="244"/>
+      <c r="H78" s="244"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="261"/>
-      <c r="F79" s="261"/>
-      <c r="G79" s="261"/>
-      <c r="H79" s="261"/>
+      <c r="E79" s="244"/>
+      <c r="F79" s="244"/>
+      <c r="G79" s="244"/>
+      <c r="H79" s="244"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="125" t="s">
+      <c r="A81" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="125"/>
-      <c r="C81" s="125"/>
-      <c r="D81" s="125"/>
-      <c r="E81" s="125"/>
-      <c r="F81" s="125"/>
-      <c r="G81" s="125"/>
-      <c r="H81" s="125"/>
-      <c r="I81" s="125"/>
+      <c r="B81" s="134"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="134"/>
+      <c r="E81" s="134"/>
+      <c r="F81" s="134"/>
+      <c r="G81" s="134"/>
+      <c r="H81" s="134"/>
+      <c r="I81" s="134"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="125"/>
-      <c r="B82" s="125"/>
-      <c r="C82" s="125"/>
-      <c r="D82" s="125"/>
-      <c r="E82" s="125"/>
-      <c r="F82" s="125"/>
-      <c r="G82" s="125"/>
-      <c r="H82" s="125"/>
-      <c r="I82" s="125"/>
+      <c r="A82" s="134"/>
+      <c r="B82" s="134"/>
+      <c r="C82" s="134"/>
+      <c r="D82" s="134"/>
+      <c r="E82" s="134"/>
+      <c r="F82" s="134"/>
+      <c r="G82" s="134"/>
+      <c r="H82" s="134"/>
+      <c r="I82" s="134"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="125"/>
-      <c r="B83" s="125"/>
-      <c r="C83" s="125"/>
-      <c r="D83" s="125"/>
-      <c r="E83" s="125"/>
-      <c r="F83" s="125"/>
-      <c r="G83" s="125"/>
-      <c r="H83" s="125"/>
-      <c r="I83" s="125"/>
+      <c r="A83" s="134"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="134"/>
+      <c r="F83" s="134"/>
+      <c r="G83" s="134"/>
+      <c r="H83" s="134"/>
+      <c r="I83" s="134"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="125"/>
-      <c r="B84" s="125"/>
-      <c r="C84" s="125"/>
-      <c r="D84" s="125"/>
-      <c r="E84" s="125"/>
-      <c r="F84" s="125"/>
-      <c r="G84" s="125"/>
-      <c r="H84" s="125"/>
-      <c r="I84" s="125"/>
+      <c r="A84" s="134"/>
+      <c r="B84" s="134"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="134"/>
+      <c r="E84" s="134"/>
+      <c r="F84" s="134"/>
+      <c r="G84" s="134"/>
+      <c r="H84" s="134"/>
+      <c r="I84" s="134"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="125"/>
-      <c r="B85" s="125"/>
-      <c r="C85" s="125"/>
-      <c r="D85" s="125"/>
-      <c r="E85" s="125"/>
-      <c r="F85" s="125"/>
-      <c r="G85" s="125"/>
-      <c r="H85" s="125"/>
-      <c r="I85" s="125"/>
+      <c r="A85" s="134"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
+      <c r="F85" s="134"/>
+      <c r="G85" s="134"/>
+      <c r="H85" s="134"/>
+      <c r="I85" s="134"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="125"/>
-      <c r="B86" s="125"/>
-      <c r="C86" s="125"/>
-      <c r="D86" s="125"/>
-      <c r="E86" s="125"/>
-      <c r="F86" s="125"/>
-      <c r="G86" s="125"/>
-      <c r="H86" s="125"/>
-      <c r="I86" s="125"/>
+      <c r="A86" s="134"/>
+      <c r="B86" s="134"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="134"/>
+      <c r="E86" s="134"/>
+      <c r="F86" s="134"/>
+      <c r="G86" s="134"/>
+      <c r="H86" s="134"/>
+      <c r="I86" s="134"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="125"/>
-      <c r="B87" s="125"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="125"/>
-      <c r="E87" s="125"/>
-      <c r="F87" s="125"/>
-      <c r="G87" s="125"/>
-      <c r="H87" s="125"/>
-      <c r="I87" s="125"/>
+      <c r="A87" s="134"/>
+      <c r="B87" s="134"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="134"/>
+      <c r="F87" s="134"/>
+      <c r="G87" s="134"/>
+      <c r="H87" s="134"/>
+      <c r="I87" s="134"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="125"/>
-      <c r="B88" s="125"/>
-      <c r="C88" s="125"/>
-      <c r="D88" s="125"/>
-      <c r="E88" s="125"/>
-      <c r="F88" s="125"/>
-      <c r="G88" s="125"/>
-      <c r="H88" s="125"/>
-      <c r="I88" s="125"/>
+      <c r="A88" s="134"/>
+      <c r="B88" s="134"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="134"/>
+      <c r="E88" s="134"/>
+      <c r="F88" s="134"/>
+      <c r="G88" s="134"/>
+      <c r="H88" s="134"/>
+      <c r="I88" s="134"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="125"/>
-      <c r="B89" s="125"/>
-      <c r="C89" s="125"/>
-      <c r="D89" s="125"/>
-      <c r="E89" s="125"/>
-      <c r="F89" s="125"/>
-      <c r="G89" s="125"/>
-      <c r="H89" s="125"/>
-      <c r="I89" s="125"/>
+      <c r="A89" s="134"/>
+      <c r="B89" s="134"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="134"/>
+      <c r="E89" s="134"/>
+      <c r="F89" s="134"/>
+      <c r="G89" s="134"/>
+      <c r="H89" s="134"/>
+      <c r="I89" s="134"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="125"/>
-      <c r="B90" s="125"/>
-      <c r="C90" s="125"/>
-      <c r="D90" s="125"/>
-      <c r="E90" s="125"/>
-      <c r="F90" s="125"/>
-      <c r="G90" s="125"/>
-      <c r="H90" s="125"/>
-      <c r="I90" s="125"/>
+      <c r="A90" s="134"/>
+      <c r="B90" s="134"/>
+      <c r="C90" s="134"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="134"/>
+      <c r="F90" s="134"/>
+      <c r="G90" s="134"/>
+      <c r="H90" s="134"/>
+      <c r="I90" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B68:I69"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="D71:E72"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="H71:I72"/>
     <mergeCell ref="A81:I90"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="F73:G73"/>
@@ -11289,19 +11287,6 @@
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B75:I76"/>
     <mergeCell ref="E78:H79"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B68:I69"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="D71:E72"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="H71:I72"/>
-    <mergeCell ref="B46:I48"/>
-    <mergeCell ref="A15:I16"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11326,7 +11311,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -11363,28 +11348,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="158" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="158"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="158"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="178"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
+      <c r="A16" s="158"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -11411,15 +11396,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="124" t="s">
+      <c r="C21" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -11444,15 +11429,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="124" t="s">
+      <c r="C24" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="130"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -11493,16 +11478,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="124" t="s">
+      <c r="B31" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="130"/>
+      <c r="I31" s="130"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -11592,48 +11577,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="124" t="s">
+      <c r="B45" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="178" t="s">
+      <c r="B46" s="158" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="178"/>
-      <c r="D46" s="178"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="178"/>
-      <c r="G46" s="178"/>
-      <c r="H46" s="178"/>
-      <c r="I46" s="178"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="158"/>
+      <c r="H46" s="158"/>
+      <c r="I46" s="158"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="178"/>
-      <c r="C47" s="178"/>
-      <c r="D47" s="178"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="178"/>
-      <c r="I47" s="178"/>
+      <c r="B47" s="158"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="158"/>
+      <c r="F47" s="158"/>
+      <c r="G47" s="158"/>
+      <c r="H47" s="158"/>
+      <c r="I47" s="158"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="178"/>
-      <c r="C48" s="178"/>
-      <c r="D48" s="178"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="178"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="178"/>
-      <c r="I48" s="178"/>
+      <c r="B48" s="158"/>
+      <c r="C48" s="158"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="158"/>
+      <c r="F48" s="158"/>
+      <c r="G48" s="158"/>
+      <c r="H48" s="158"/>
+      <c r="I48" s="158"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -11646,16 +11631,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="124" t="s">
+      <c r="B59" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="124"/>
-      <c r="D59" s="124"/>
-      <c r="E59" s="124"/>
-      <c r="F59" s="124"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="124"/>
-      <c r="I59" s="124"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="130"/>
+      <c r="I59" s="130"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -11669,16 +11654,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="124" t="s">
+      <c r="B62" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="124"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -11701,227 +11686,228 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="178" t="s">
+      <c r="B68" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="178"/>
-      <c r="D68" s="178"/>
-      <c r="E68" s="178"/>
-      <c r="F68" s="178"/>
-      <c r="G68" s="178"/>
-      <c r="H68" s="178"/>
-      <c r="I68" s="178"/>
+      <c r="C68" s="158"/>
+      <c r="D68" s="158"/>
+      <c r="E68" s="158"/>
+      <c r="F68" s="158"/>
+      <c r="G68" s="158"/>
+      <c r="H68" s="158"/>
+      <c r="I68" s="158"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="178"/>
-      <c r="C69" s="178"/>
-      <c r="D69" s="178"/>
-      <c r="E69" s="178"/>
-      <c r="F69" s="178"/>
-      <c r="G69" s="178"/>
-      <c r="H69" s="178"/>
-      <c r="I69" s="178"/>
+      <c r="B69" s="158"/>
+      <c r="C69" s="158"/>
+      <c r="D69" s="158"/>
+      <c r="E69" s="158"/>
+      <c r="F69" s="158"/>
+      <c r="G69" s="158"/>
+      <c r="H69" s="158"/>
+      <c r="I69" s="158"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="247"/>
-      <c r="C71" s="248"/>
-      <c r="D71" s="251" t="s">
+      <c r="B71" s="245"/>
+      <c r="C71" s="246"/>
+      <c r="D71" s="249" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="252"/>
-      <c r="F71" s="251" t="s">
+      <c r="E71" s="250"/>
+      <c r="F71" s="249" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="252"/>
-      <c r="H71" s="251" t="s">
+      <c r="G71" s="250"/>
+      <c r="H71" s="249" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="252"/>
+      <c r="I71" s="250"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="249"/>
-      <c r="C72" s="250"/>
-      <c r="D72" s="253"/>
-      <c r="E72" s="254"/>
-      <c r="F72" s="253"/>
-      <c r="G72" s="254"/>
-      <c r="H72" s="253"/>
-      <c r="I72" s="254"/>
+      <c r="B72" s="247"/>
+      <c r="C72" s="248"/>
+      <c r="D72" s="251"/>
+      <c r="E72" s="252"/>
+      <c r="F72" s="251"/>
+      <c r="G72" s="252"/>
+      <c r="H72" s="251"/>
+      <c r="I72" s="252"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="258" t="s">
+      <c r="B73" s="241" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="259"/>
-      <c r="D73" s="255"/>
-      <c r="E73" s="256"/>
-      <c r="F73" s="257"/>
-      <c r="G73" s="256"/>
-      <c r="H73" s="257"/>
-      <c r="I73" s="256"/>
+      <c r="C73" s="242"/>
+      <c r="D73" s="238"/>
+      <c r="E73" s="239"/>
+      <c r="F73" s="240"/>
+      <c r="G73" s="239"/>
+      <c r="H73" s="240"/>
+      <c r="I73" s="239"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="178" t="s">
+      <c r="B75" s="158" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="178"/>
-      <c r="D75" s="178"/>
-      <c r="E75" s="178"/>
-      <c r="F75" s="178"/>
-      <c r="G75" s="178"/>
-      <c r="H75" s="178"/>
-      <c r="I75" s="178"/>
+      <c r="C75" s="158"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="158"/>
+      <c r="F75" s="158"/>
+      <c r="G75" s="158"/>
+      <c r="H75" s="158"/>
+      <c r="I75" s="158"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="178"/>
-      <c r="C76" s="178"/>
-      <c r="D76" s="178"/>
-      <c r="E76" s="178"/>
-      <c r="F76" s="178"/>
-      <c r="G76" s="178"/>
-      <c r="H76" s="178"/>
-      <c r="I76" s="178"/>
+      <c r="B76" s="158"/>
+      <c r="C76" s="158"/>
+      <c r="D76" s="158"/>
+      <c r="E76" s="158"/>
+      <c r="F76" s="158"/>
+      <c r="G76" s="158"/>
+      <c r="H76" s="158"/>
+      <c r="I76" s="158"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="260" t="s">
+      <c r="E78" s="243" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="261"/>
-      <c r="G78" s="261"/>
-      <c r="H78" s="261"/>
+      <c r="F78" s="244"/>
+      <c r="G78" s="244"/>
+      <c r="H78" s="244"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="261"/>
-      <c r="F79" s="261"/>
-      <c r="G79" s="261"/>
-      <c r="H79" s="261"/>
+      <c r="E79" s="244"/>
+      <c r="F79" s="244"/>
+      <c r="G79" s="244"/>
+      <c r="H79" s="244"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="125" t="s">
+      <c r="A81" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="125"/>
-      <c r="C81" s="125"/>
-      <c r="D81" s="125"/>
-      <c r="E81" s="125"/>
-      <c r="F81" s="125"/>
-      <c r="G81" s="125"/>
-      <c r="H81" s="125"/>
-      <c r="I81" s="125"/>
+      <c r="B81" s="134"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="134"/>
+      <c r="E81" s="134"/>
+      <c r="F81" s="134"/>
+      <c r="G81" s="134"/>
+      <c r="H81" s="134"/>
+      <c r="I81" s="134"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="125"/>
-      <c r="B82" s="125"/>
-      <c r="C82" s="125"/>
-      <c r="D82" s="125"/>
-      <c r="E82" s="125"/>
-      <c r="F82" s="125"/>
-      <c r="G82" s="125"/>
-      <c r="H82" s="125"/>
-      <c r="I82" s="125"/>
+      <c r="A82" s="134"/>
+      <c r="B82" s="134"/>
+      <c r="C82" s="134"/>
+      <c r="D82" s="134"/>
+      <c r="E82" s="134"/>
+      <c r="F82" s="134"/>
+      <c r="G82" s="134"/>
+      <c r="H82" s="134"/>
+      <c r="I82" s="134"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="125"/>
-      <c r="B83" s="125"/>
-      <c r="C83" s="125"/>
-      <c r="D83" s="125"/>
-      <c r="E83" s="125"/>
-      <c r="F83" s="125"/>
-      <c r="G83" s="125"/>
-      <c r="H83" s="125"/>
-      <c r="I83" s="125"/>
+      <c r="A83" s="134"/>
+      <c r="B83" s="134"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="134"/>
+      <c r="E83" s="134"/>
+      <c r="F83" s="134"/>
+      <c r="G83" s="134"/>
+      <c r="H83" s="134"/>
+      <c r="I83" s="134"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="125"/>
-      <c r="B84" s="125"/>
-      <c r="C84" s="125"/>
-      <c r="D84" s="125"/>
-      <c r="E84" s="125"/>
-      <c r="F84" s="125"/>
-      <c r="G84" s="125"/>
-      <c r="H84" s="125"/>
-      <c r="I84" s="125"/>
+      <c r="A84" s="134"/>
+      <c r="B84" s="134"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="134"/>
+      <c r="E84" s="134"/>
+      <c r="F84" s="134"/>
+      <c r="G84" s="134"/>
+      <c r="H84" s="134"/>
+      <c r="I84" s="134"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="125"/>
-      <c r="B85" s="125"/>
-      <c r="C85" s="125"/>
-      <c r="D85" s="125"/>
-      <c r="E85" s="125"/>
-      <c r="F85" s="125"/>
-      <c r="G85" s="125"/>
-      <c r="H85" s="125"/>
-      <c r="I85" s="125"/>
+      <c r="A85" s="134"/>
+      <c r="B85" s="134"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="134"/>
+      <c r="E85" s="134"/>
+      <c r="F85" s="134"/>
+      <c r="G85" s="134"/>
+      <c r="H85" s="134"/>
+      <c r="I85" s="134"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="125"/>
-      <c r="B86" s="125"/>
-      <c r="C86" s="125"/>
-      <c r="D86" s="125"/>
-      <c r="E86" s="125"/>
-      <c r="F86" s="125"/>
-      <c r="G86" s="125"/>
-      <c r="H86" s="125"/>
-      <c r="I86" s="125"/>
+      <c r="A86" s="134"/>
+      <c r="B86" s="134"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="134"/>
+      <c r="E86" s="134"/>
+      <c r="F86" s="134"/>
+      <c r="G86" s="134"/>
+      <c r="H86" s="134"/>
+      <c r="I86" s="134"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="125"/>
-      <c r="B87" s="125"/>
-      <c r="C87" s="125"/>
-      <c r="D87" s="125"/>
-      <c r="E87" s="125"/>
-      <c r="F87" s="125"/>
-      <c r="G87" s="125"/>
-      <c r="H87" s="125"/>
-      <c r="I87" s="125"/>
+      <c r="A87" s="134"/>
+      <c r="B87" s="134"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="134"/>
+      <c r="F87" s="134"/>
+      <c r="G87" s="134"/>
+      <c r="H87" s="134"/>
+      <c r="I87" s="134"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="125"/>
-      <c r="B88" s="125"/>
-      <c r="C88" s="125"/>
-      <c r="D88" s="125"/>
-      <c r="E88" s="125"/>
-      <c r="F88" s="125"/>
-      <c r="G88" s="125"/>
-      <c r="H88" s="125"/>
-      <c r="I88" s="125"/>
+      <c r="A88" s="134"/>
+      <c r="B88" s="134"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="134"/>
+      <c r="E88" s="134"/>
+      <c r="F88" s="134"/>
+      <c r="G88" s="134"/>
+      <c r="H88" s="134"/>
+      <c r="I88" s="134"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="125"/>
-      <c r="B89" s="125"/>
-      <c r="C89" s="125"/>
-      <c r="D89" s="125"/>
-      <c r="E89" s="125"/>
-      <c r="F89" s="125"/>
-      <c r="G89" s="125"/>
-      <c r="H89" s="125"/>
-      <c r="I89" s="125"/>
+      <c r="A89" s="134"/>
+      <c r="B89" s="134"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="134"/>
+      <c r="E89" s="134"/>
+      <c r="F89" s="134"/>
+      <c r="G89" s="134"/>
+      <c r="H89" s="134"/>
+      <c r="I89" s="134"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="125"/>
-      <c r="B90" s="125"/>
-      <c r="C90" s="125"/>
-      <c r="D90" s="125"/>
-      <c r="E90" s="125"/>
-      <c r="F90" s="125"/>
-      <c r="G90" s="125"/>
-      <c r="H90" s="125"/>
-      <c r="I90" s="125"/>
+      <c r="A90" s="134"/>
+      <c r="B90" s="134"/>
+      <c r="C90" s="134"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="134"/>
+      <c r="F90" s="134"/>
+      <c r="G90" s="134"/>
+      <c r="H90" s="134"/>
+      <c r="I90" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B46:I48"/>
-    <mergeCell ref="A15:I16"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="A81:I90"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B75:I76"/>
+    <mergeCell ref="E78:H79"/>
     <mergeCell ref="B59:I59"/>
     <mergeCell ref="B62:I62"/>
     <mergeCell ref="B68:I69"/>
@@ -11929,13 +11915,12 @@
     <mergeCell ref="D71:E72"/>
     <mergeCell ref="F71:G72"/>
     <mergeCell ref="H71:I72"/>
-    <mergeCell ref="A81:I90"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="B75:I76"/>
-    <mergeCell ref="E78:H79"/>
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
